--- a/data/documents/ph.xlsx
+++ b/data/documents/ph.xlsx
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C26" s="63">
-        <v>80000000</v>
+        <v>60000000</v>
       </c>
       <c t="inlineStr" r="D26">
         <is>
@@ -1354,7 +1354,7 @@
       </c>
       <c t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Price Reduced</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="C31" s="63">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c t="inlineStr" r="D31">
         <is>
@@ -1579,7 +1579,7 @@
       </c>
       <c t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">Repriced</t>
+          <t xml:space="preserve">Price Reduced</t>
         </is>
       </c>
     </row>
@@ -1667,12 +1667,12 @@
       </c>
       <c t="inlineStr" r="J33">
         <is>
-          <t xml:space="preserve">Eleanor Carbonell</t>
+          <t xml:space="preserve">Noemi Concepcion</t>
         </is>
       </c>
       <c t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Negotiable</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="C102" s="63">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c t="inlineStr" r="D102">
         <is>
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="C120" s="63">
-        <v>295000000</v>
+        <v>190000000</v>
       </c>
       <c t="inlineStr" r="D120">
         <is>
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="C178" s="63">
-        <v>1300000</v>
+        <v>800000</v>
       </c>
       <c t="inlineStr" r="D178">
         <is>
@@ -8022,7 +8022,7 @@
       </c>
       <c t="inlineStr" r="K178">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Negotiable</t>
         </is>
       </c>
     </row>
@@ -8897,7 +8897,7 @@
         </is>
       </c>
       <c r="C198" s="63">
-        <v>265000000</v>
+        <v>130000000</v>
       </c>
       <c t="inlineStr" r="D198">
         <is>
@@ -9192,6 +9192,55 @@
       <c t="inlineStr" r="K204">
         <is>
           <t xml:space="preserve">plus any applicable taxes</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c t="str" r="A205" s="4">
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00404/Home-of-Authentic-Spanish-Cuisine-with-Commissary","OR00404")</f>
+      </c>
+      <c t="inlineStr" r="B205">
+        <is>
+          <t xml:space="preserve">Home of Authentic Spanish Cuisine with Commissary</t>
+        </is>
+      </c>
+      <c r="C205" s="63">
+        <v>5500000</v>
+      </c>
+      <c t="inlineStr" r="D205">
+        <is>
+          <t xml:space="preserve">Pasig</t>
+        </is>
+      </c>
+      <c r="E205" s="65">
+        <v>0</v>
+      </c>
+      <c r="F205" s="65">
+        <v>0</v>
+      </c>
+      <c t="inlineStr" r="G205">
+        <is>
+          <t xml:space="preserve">Food/Beverage</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H205">
+        <is>
+          <t xml:space="preserve">Restaurant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I205">
+        <is>
+          <t xml:space="preserve">Princess Moratin</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J205">
+        <is>
+          <t xml:space="preserve">Poncho Claudio</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K205">
+        <is>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>

--- a/data/documents/ph.xlsx
+++ b/data/documents/ph.xlsx
@@ -2954,15 +2954,15 @@
     </row>
     <row r="63">
       <c t="str" r="A63" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00123/Highly-Rated-Cafe-Near-University","OR00123")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00115/Exclusive-Safety-Industrial-Supplier-in-the-Philippines","OR00115")</f>
       </c>
       <c t="inlineStr" r="B63">
         <is>
-          <t xml:space="preserve">Highly Rated Cafe Near University</t>
+          <t xml:space="preserve">Exclusive Safety Industrial Supplier in the Philippines</t>
         </is>
       </c>
       <c r="C63" s="63">
-        <v>950000</v>
+        <v>350000000</v>
       </c>
       <c t="inlineStr" r="D63">
         <is>
@@ -2973,51 +2973,36 @@
         <v>0</v>
       </c>
       <c r="F63" s="65">
-        <v>4</v>
-      </c>
-      <c t="inlineStr" r="G63">
-        <is>
-          <t xml:space="preserve">Food/Beverage</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H63">
-        <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I63">
-        <is>
-          <t xml:space="preserve">Princess Moratin</t>
-        </is>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="K63">
         <is>
-          <t xml:space="preserve">Make an Offer!</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c t="str" r="A64" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00124/Restaurant-Chain-%252f-Franchise","OR00124")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00123/Highly-Rated-Cafe-Near-University","OR00123")</f>
       </c>
       <c t="inlineStr" r="B64">
         <is>
-          <t xml:space="preserve">Restaurant Chain / Franchise</t>
+          <t xml:space="preserve">Highly Rated Cafe Near University</t>
         </is>
       </c>
       <c r="C64" s="63">
-        <v>7500000</v>
+        <v>950000</v>
       </c>
       <c t="inlineStr" r="D64">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">National Capital Region</t>
         </is>
       </c>
       <c r="E64" s="65">
         <v>0</v>
       </c>
       <c r="F64" s="65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c t="inlineStr" r="G64">
         <is>
@@ -3026,30 +3011,35 @@
       </c>
       <c t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I64">
+        <is>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K64">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Make an Offer!</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c t="str" r="A65" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00129/Stationery-and-Craft-Supply-Store-with-4-Mall-Locations","OR00129")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00124/Restaurant-Chain-%252f-Franchise","OR00124")</f>
       </c>
       <c t="inlineStr" r="B65">
         <is>
-          <t xml:space="preserve">Stationery and Craft Supply Store with 4 Mall Locations</t>
+          <t xml:space="preserve">Restaurant Chain / Franchise</t>
         </is>
       </c>
       <c r="C65" s="63">
-        <v>8000000</v>
+        <v>7500000</v>
       </c>
       <c t="inlineStr" r="D65">
         <is>
-          <t xml:space="preserve">Pasig</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E65" s="65">
@@ -3060,12 +3050,12 @@
       </c>
       <c t="inlineStr" r="G65">
         <is>
-          <t xml:space="preserve">Import/Export/Wholesale</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H65">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="K65">
@@ -3076,11 +3066,11 @@
     </row>
     <row r="66">
       <c t="str" r="A66" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00131/Restaurant-Offering-Fine-Filipino-Cuisine","OR00131")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00129/Stationery-and-Craft-Supply-Store-with-4-Mall-Locations","OR00129")</f>
       </c>
       <c t="inlineStr" r="B66">
         <is>
-          <t xml:space="preserve">Restaurant Offering Fine Filipino Cuisine</t>
+          <t xml:space="preserve">Stationery and Craft Supply Store with 4 Mall Locations</t>
         </is>
       </c>
       <c r="C66" s="63">
@@ -3088,7 +3078,7 @@
       </c>
       <c t="inlineStr" r="D66">
         <is>
-          <t xml:space="preserve">Mandaluyong</t>
+          <t xml:space="preserve">Pasig</t>
         </is>
       </c>
       <c r="E66" s="65">
@@ -3099,12 +3089,12 @@
       </c>
       <c t="inlineStr" r="G66">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Import/Export/Wholesale</t>
         </is>
       </c>
       <c t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="K66">
@@ -3115,19 +3105,19 @@
     </row>
     <row r="67">
       <c t="str" r="A67" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00132/Established-Japanese-Restaurant-in-Prime-Location","OR00132")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00131/Restaurant-Offering-Fine-Filipino-Cuisine","OR00131")</f>
       </c>
       <c t="inlineStr" r="B67">
         <is>
-          <t xml:space="preserve">Established Japanese Restaurant in Prime Location</t>
+          <t xml:space="preserve">Restaurant Offering Fine Filipino Cuisine</t>
         </is>
       </c>
       <c r="C67" s="63">
-        <v>9500000</v>
+        <v>8000000</v>
       </c>
       <c t="inlineStr" r="D67">
         <is>
-          <t xml:space="preserve">Rizal</t>
+          <t xml:space="preserve">Mandaluyong</t>
         </is>
       </c>
       <c r="E67" s="65">
@@ -3144,11 +3134,6 @@
       <c t="inlineStr" r="H67">
         <is>
           <t xml:space="preserve">Restaurant</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I67">
-        <is>
-          <t xml:space="preserve">Jard Gerona</t>
         </is>
       </c>
       <c t="inlineStr" r="K67">
@@ -3159,19 +3144,19 @@
     </row>
     <row r="68">
       <c t="str" r="A68" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00134/PROFITABLE-CONVENIENCE-STORE","OR00134")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00132/Established-Japanese-Restaurant-in-Prime-Location","OR00132")</f>
       </c>
       <c t="inlineStr" r="B68">
         <is>
-          <t xml:space="preserve">PROFITABLE CONVENIENCE STORE</t>
+          <t xml:space="preserve">Established Japanese Restaurant in Prime Location</t>
         </is>
       </c>
       <c r="C68" s="63">
-        <v>1450000</v>
+        <v>9500000</v>
       </c>
       <c t="inlineStr" r="D68">
         <is>
-          <t xml:space="preserve">Paranaque</t>
+          <t xml:space="preserve">Rizal</t>
         </is>
       </c>
       <c r="E68" s="65">
@@ -3187,35 +3172,35 @@
       </c>
       <c t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">Convenience Store</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="I68">
         <is>
-          <t xml:space="preserve">Lorna Estacio</t>
+          <t xml:space="preserve">Jard Gerona</t>
         </is>
       </c>
       <c t="inlineStr" r="K68">
         <is>
-          <t xml:space="preserve">(From ₱1,750,000)</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c t="str" r="A69" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00143/Popular-Mediterranean-Restaurant-with-High-Growth-Potential","OR00143")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00134/PROFITABLE-CONVENIENCE-STORE","OR00134")</f>
       </c>
       <c t="inlineStr" r="B69">
         <is>
-          <t xml:space="preserve">Popular Mediterranean Restaurant with High Growth Potential</t>
+          <t xml:space="preserve">PROFITABLE CONVENIENCE STORE</t>
         </is>
       </c>
       <c r="C69" s="63">
-        <v>13900000</v>
+        <v>1450000</v>
       </c>
       <c t="inlineStr" r="D69">
         <is>
-          <t xml:space="preserve">National Capital Region</t>
+          <t xml:space="preserve">Paranaque</t>
         </is>
       </c>
       <c r="E69" s="65">
@@ -3231,40 +3216,35 @@
       </c>
       <c t="inlineStr" r="H69">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Convenience Store</t>
         </is>
       </c>
       <c t="inlineStr" r="I69">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J69">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Lorna Estacio</t>
         </is>
       </c>
       <c t="inlineStr" r="K69">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">(From ₱1,750,000)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c t="str" r="A70" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00148/Construction-Company-with-Pioneering-Civil-Works","OR00148")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00143/Popular-Mediterranean-Restaurant-with-High-Growth-Potential","OR00143")</f>
       </c>
       <c t="inlineStr" r="B70">
         <is>
-          <t xml:space="preserve">Construction Company with Pioneering Civil Works</t>
+          <t xml:space="preserve">Popular Mediterranean Restaurant with High Growth Potential</t>
         </is>
       </c>
       <c r="C70" s="63">
-        <v>6000000</v>
+        <v>13900000</v>
       </c>
       <c t="inlineStr" r="D70">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">National Capital Region</t>
         </is>
       </c>
       <c r="E70" s="65">
@@ -3275,40 +3255,45 @@
       </c>
       <c t="inlineStr" r="G70">
         <is>
-          <t xml:space="preserve">Building/Construction</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="I70">
         <is>
-          <t xml:space="preserve">Poncho Claudio</t>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J70">
+        <is>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K70">
         <is>
-          <t xml:space="preserve">(₱3M Down, ₱3M Deferrable)</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c t="str" r="A71" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00149/Multi-Awarded-Nail%2c-Foot-and-Body-SPA-Business","OR00149")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00148/Construction-Company-with-Pioneering-Civil-Works","OR00148")</f>
       </c>
       <c t="inlineStr" r="B71">
         <is>
-          <t xml:space="preserve">Multi Awarded Nail, Foot and Body SPA Business</t>
+          <t xml:space="preserve">Construction Company with Pioneering Civil Works</t>
         </is>
       </c>
       <c r="C71" s="63">
-        <v>9000000</v>
+        <v>6000000</v>
       </c>
       <c t="inlineStr" r="D71">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E71" s="65">
@@ -3319,40 +3304,40 @@
       </c>
       <c t="inlineStr" r="G71">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Building/Construction</t>
         </is>
       </c>
       <c t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">Nails</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="I71">
         <is>
-          <t xml:space="preserve">Efren Pascual</t>
+          <t xml:space="preserve">Poncho Claudio</t>
         </is>
       </c>
       <c t="inlineStr" r="K71">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">(₱3M Down, ₱3M Deferrable)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c t="str" r="A72" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00150/Highly-Rated-Spa-East-of-the-City","OR00150")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00149/Multi-Awarded-Nail%2c-Foot-and-Body-SPA-Business","OR00149")</f>
       </c>
       <c t="inlineStr" r="B72">
         <is>
-          <t xml:space="preserve">Highly Rated Spa East of the City</t>
+          <t xml:space="preserve">Multi Awarded Nail, Foot and Body SPA Business</t>
         </is>
       </c>
       <c r="C72" s="63">
-        <v>5000000</v>
+        <v>9000000</v>
       </c>
       <c t="inlineStr" r="D72">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E72" s="65">
@@ -3368,7 +3353,12 @@
       </c>
       <c t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Nails</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I72">
+        <is>
+          <t xml:space="preserve">Efren Pascual</t>
         </is>
       </c>
       <c t="inlineStr" r="K72">
@@ -3379,19 +3369,19 @@
     </row>
     <row r="73">
       <c t="str" r="A73" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00158/Early-Stage-Telemedicine-Company","OR00158")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00150/Highly-Rated-Spa-East-of-the-City","OR00150")</f>
       </c>
       <c t="inlineStr" r="B73">
         <is>
-          <t xml:space="preserve">Early Stage Telemedicine Company</t>
+          <t xml:space="preserve">Highly Rated Spa East of the City</t>
         </is>
       </c>
       <c r="C73" s="63">
-        <v>26500000</v>
+        <v>5000000</v>
       </c>
       <c t="inlineStr" r="D73">
         <is>
-          <t xml:space="preserve">National Capital Region</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E73" s="65">
@@ -3402,45 +3392,35 @@
       </c>
       <c t="inlineStr" r="G73">
         <is>
-          <t xml:space="preserve">Technology/Computer/IT</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">IT Services</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I73">
-        <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J73">
-        <is>
-          <t xml:space="preserve">Eduardo M Dayrit</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="K73">
         <is>
-          <t xml:space="preserve">($500,000) investment for 15% stake</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c t="str" r="A74" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00160/TRAVEL-AND-TOURS-AGENCY","OR00160")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00158/Early-Stage-Telemedicine-Company","OR00158")</f>
       </c>
       <c t="inlineStr" r="B74">
         <is>
-          <t xml:space="preserve">TRAVEL AND TOURS AGENCY</t>
+          <t xml:space="preserve">Early Stage Telemedicine Company</t>
         </is>
       </c>
       <c r="C74" s="63">
-        <v>2500000</v>
+        <v>26500000</v>
       </c>
       <c t="inlineStr" r="D74">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">National Capital Region</t>
         </is>
       </c>
       <c r="E74" s="65">
@@ -3451,36 +3431,41 @@
       </c>
       <c t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">Accomodation/Tourism</t>
+          <t xml:space="preserve">Technology/Computer/IT</t>
         </is>
       </c>
       <c t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">Travel Agency</t>
+          <t xml:space="preserve">IT Services</t>
         </is>
       </c>
       <c t="inlineStr" r="I74">
         <is>
-          <t xml:space="preserve">Lani Davies</t>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J74">
+        <is>
+          <t xml:space="preserve">Eduardo M Dayrit</t>
         </is>
       </c>
       <c t="inlineStr" r="K74">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">($500,000) investment for 15% stake</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c t="str" r="A75" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00164/Disaster-Management-and-Emergency-Response-Merchandise-Supplier","OR00164")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00160/TRAVEL-AND-TOURS-AGENCY","OR00160")</f>
       </c>
       <c t="inlineStr" r="B75">
         <is>
-          <t xml:space="preserve">Disaster Management and Emergency Response Merchandise Supplier</t>
+          <t xml:space="preserve">TRAVEL AND TOURS AGENCY</t>
         </is>
       </c>
       <c r="C75" s="63">
-        <v>4900000</v>
+        <v>2500000</v>
       </c>
       <c t="inlineStr" r="D75">
         <is>
@@ -3495,22 +3480,17 @@
       </c>
       <c t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">Retail General</t>
+          <t xml:space="preserve">Accomodation/Tourism</t>
         </is>
       </c>
       <c t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">General Merchandise</t>
+          <t xml:space="preserve">Travel Agency</t>
         </is>
       </c>
       <c t="inlineStr" r="I75">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J75">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Lani Davies</t>
         </is>
       </c>
       <c t="inlineStr" r="K75">
@@ -3521,19 +3501,19 @@
     </row>
     <row r="76">
       <c t="str" r="A76" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00168/Retailer-of-Office-Supplies%2c-Equipment-and-Furniture","OR00168")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00164/Disaster-Management-and-Emergency-Response-Merchandise-Supplier","OR00164")</f>
       </c>
       <c t="inlineStr" r="B76">
         <is>
-          <t xml:space="preserve">Retailer of Office Supplies, Equipment and Furniture</t>
+          <t xml:space="preserve">Disaster Management and Emergency Response Merchandise Supplier</t>
         </is>
       </c>
       <c r="C76" s="63">
-        <v>3000000</v>
+        <v>4900000</v>
       </c>
       <c t="inlineStr" r="D76">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E76" s="65">
@@ -3549,12 +3529,17 @@
       </c>
       <c t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">Department Store</t>
+          <t xml:space="preserve">General Merchandise</t>
         </is>
       </c>
       <c t="inlineStr" r="I76">
         <is>
-          <t xml:space="preserve">Raffy Salaveria</t>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J76">
+        <is>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K76">
@@ -3565,19 +3550,19 @@
     </row>
     <row r="77">
       <c t="str" r="A77" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00170/Rare-High-Tech-System-Integrator-with-Huge-Potential","OR00170")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00168/Retailer-of-Office-Supplies%2c-Equipment-and-Furniture","OR00168")</f>
       </c>
       <c t="inlineStr" r="B77">
         <is>
-          <t xml:space="preserve">Rare High Tech System Integrator with Huge Potential</t>
+          <t xml:space="preserve">Retailer of Office Supplies, Equipment and Furniture</t>
         </is>
       </c>
       <c r="C77" s="63">
-        <v>180000000</v>
+        <v>3000000</v>
       </c>
       <c t="inlineStr" r="D77">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E77" s="65">
@@ -3588,40 +3573,40 @@
       </c>
       <c t="inlineStr" r="G77">
         <is>
-          <t xml:space="preserve">Technology/Computer/IT</t>
+          <t xml:space="preserve">Retail General</t>
         </is>
       </c>
       <c t="inlineStr" r="H77">
         <is>
-          <t xml:space="preserve">Software</t>
+          <t xml:space="preserve">Department Store</t>
         </is>
       </c>
       <c t="inlineStr" r="I77">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
+          <t xml:space="preserve">Raffy Salaveria</t>
         </is>
       </c>
       <c t="inlineStr" r="K77">
         <is>
-          <t xml:space="preserve">plus applicable taxes if any</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c t="str" r="A78" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00172/Easy-to-Operate-Lending-Company-in-Bulacan","OR00172")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00170/Rare-High-Tech-System-Integrator-with-Huge-Potential","OR00170")</f>
       </c>
       <c t="inlineStr" r="B78">
         <is>
-          <t xml:space="preserve">Easy to Operate Lending Company in Bulacan</t>
+          <t xml:space="preserve">Rare High Tech System Integrator with Huge Potential</t>
         </is>
       </c>
       <c r="C78" s="63">
-        <v>400000</v>
+        <v>180000000</v>
       </c>
       <c t="inlineStr" r="D78">
         <is>
-          <t xml:space="preserve">Bulacan</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E78" s="65">
@@ -3632,40 +3617,40 @@
       </c>
       <c t="inlineStr" r="G78">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Technology/Computer/IT</t>
         </is>
       </c>
       <c t="inlineStr" r="H78">
         <is>
-          <t xml:space="preserve">Finance/Insurance</t>
+          <t xml:space="preserve">Software</t>
         </is>
       </c>
       <c t="inlineStr" r="I78">
         <is>
-          <t xml:space="preserve">Ricky Gumaru</t>
+          <t xml:space="preserve">Dan R Francisco</t>
         </is>
       </c>
       <c t="inlineStr" r="K78">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">plus applicable taxes if any</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c t="str" r="A79" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00178/Lucrative-Beauty-Salon-%26-Massage-Spa-in-treasured-Makati-spot","OR00178")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00172/Easy-to-Operate-Lending-Company-in-Bulacan","OR00172")</f>
       </c>
       <c t="inlineStr" r="B79">
         <is>
-          <t xml:space="preserve">Lucrative Beauty Salon &amp; Massage Spa in treasured Makati spot</t>
+          <t xml:space="preserve">Easy to Operate Lending Company in Bulacan</t>
         </is>
       </c>
       <c r="C79" s="63">
-        <v>1900000</v>
+        <v>400000</v>
       </c>
       <c t="inlineStr" r="D79">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Bulacan</t>
         </is>
       </c>
       <c r="E79" s="65">
@@ -3676,12 +3661,17 @@
       </c>
       <c t="inlineStr" r="G79">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H79">
         <is>
-          <t xml:space="preserve">Hair</t>
+          <t xml:space="preserve">Finance/Insurance</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I79">
+        <is>
+          <t xml:space="preserve">Ricky Gumaru</t>
         </is>
       </c>
       <c t="inlineStr" r="K79">
@@ -3692,40 +3682,35 @@
     </row>
     <row r="80">
       <c t="str" r="A80" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00179/Turnkey-Bakeshop-with-Milk-Tea-Franchise-in-QC","OR00179")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00178/Lucrative-Beauty-Salon-%26-Massage-Spa-in-treasured-Makati-spot","OR00178")</f>
       </c>
       <c t="inlineStr" r="B80">
         <is>
-          <t xml:space="preserve">Turnkey Bakeshop with Milk Tea Franchise in QC</t>
+          <t xml:space="preserve">Lucrative Beauty Salon &amp; Massage Spa in treasured Makati spot</t>
         </is>
       </c>
       <c r="C80" s="63">
-        <v>2200000</v>
+        <v>1900000</v>
       </c>
       <c t="inlineStr" r="D80">
         <is>
-          <t xml:space="preserve">Quezon City</t>
-        </is>
-      </c>
-      <c r="E80" s="63">
-        <v>3155934</v>
+          <t xml:space="preserve">Metro Manila</t>
+        </is>
+      </c>
+      <c r="E80" s="65">
+        <v>0</v>
       </c>
       <c r="F80" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G80">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H80">
         <is>
-          <t xml:space="preserve">Bakery</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I80">
-        <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Hair</t>
         </is>
       </c>
       <c t="inlineStr" r="K80">
@@ -3736,64 +3721,59 @@
     </row>
     <row r="81">
       <c t="str" r="A81" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00182/Franchise-Opportunity!","OR00182")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00179/Turnkey-Bakeshop-with-Milk-Tea-Franchise-in-QC","OR00179")</f>
       </c>
       <c t="inlineStr" r="B81">
         <is>
-          <t xml:space="preserve">Franchise Opportunity!</t>
+          <t xml:space="preserve">Turnkey Bakeshop with Milk Tea Franchise in QC</t>
         </is>
       </c>
       <c r="C81" s="63">
-        <v>1200000</v>
+        <v>2200000</v>
       </c>
       <c t="inlineStr" r="D81">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
-        </is>
-      </c>
-      <c r="E81" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Quezon City</t>
+        </is>
+      </c>
+      <c r="E81" s="63">
+        <v>3155934</v>
       </c>
       <c r="F81" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G81">
         <is>
-          <t xml:space="preserve">Franchise</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H81">
         <is>
-          <t xml:space="preserve">Food</t>
+          <t xml:space="preserve">Bakery</t>
         </is>
       </c>
       <c t="inlineStr" r="I81">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J81">
-        <is>
           <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K81">
         <is>
-          <t xml:space="preserve">Franchise Fee</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c t="str" r="A82" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00185/Software-Solutions-Provider","OR00185")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00182/Franchise-Opportunity!","OR00182")</f>
       </c>
       <c t="inlineStr" r="B82">
         <is>
-          <t xml:space="preserve">Software Solutions Provider</t>
+          <t xml:space="preserve">Franchise Opportunity!</t>
         </is>
       </c>
       <c r="C82" s="63">
-        <v>1600000000</v>
+        <v>1200000</v>
       </c>
       <c t="inlineStr" r="D82">
         <is>
@@ -3808,36 +3788,41 @@
       </c>
       <c t="inlineStr" r="G82">
         <is>
-          <t xml:space="preserve">Technology/Computer/IT</t>
+          <t xml:space="preserve">Franchise</t>
         </is>
       </c>
       <c t="inlineStr" r="H82">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Food</t>
         </is>
       </c>
       <c t="inlineStr" r="I82">
         <is>
-          <t xml:space="preserve">Roberto Narciso</t>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J82">
+        <is>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K82">
         <is>
-          <t xml:space="preserve">- 2017 Sales Close to 1 Billion</t>
+          <t xml:space="preserve">Franchise Fee</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c t="str" r="A83" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00186/Casual-Dining-Italian-Restaurant-in-Historical-Manila","OR00186")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00185/Software-Solutions-Provider","OR00185")</f>
       </c>
       <c t="inlineStr" r="B83">
         <is>
-          <t xml:space="preserve">Casual Dining Italian Restaurant in Historical Manila</t>
+          <t xml:space="preserve">Software Solutions Provider</t>
         </is>
       </c>
       <c r="C83" s="63">
-        <v>2700000</v>
+        <v>1600000000</v>
       </c>
       <c t="inlineStr" r="D83">
         <is>
@@ -3852,45 +3837,40 @@
       </c>
       <c t="inlineStr" r="G83">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Technology/Computer/IT</t>
         </is>
       </c>
       <c t="inlineStr" r="H83">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I83">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J83">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Roberto Narciso</t>
         </is>
       </c>
       <c t="inlineStr" r="K83">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">- 2017 Sales Close to 1 Billion</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c t="str" r="A84" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00188/Profitable-Full-Service-Laundry-REPRICED!!","OR00188")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00186/Casual-Dining-Italian-Restaurant-in-Historical-Manila","OR00186")</f>
       </c>
       <c t="inlineStr" r="B84">
         <is>
-          <t xml:space="preserve">Profitable Full Service Laundry REPRICED!!</t>
+          <t xml:space="preserve">Casual Dining Italian Restaurant in Historical Manila</t>
         </is>
       </c>
       <c r="C84" s="63">
-        <v>1700000</v>
+        <v>2700000</v>
       </c>
       <c t="inlineStr" r="D84">
         <is>
-          <t xml:space="preserve">Laguna</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E84" s="65">
@@ -3901,35 +3881,45 @@
       </c>
       <c t="inlineStr" r="G84">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H84">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Restaurant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I84">
+        <is>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J84">
+        <is>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K84">
         <is>
-          <t xml:space="preserve">- 30 Minutes South of Alabang</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c t="str" r="A85" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00189/Gourmet-Fast-Casual-Italian-Cuisine","OR00189")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00188/Profitable-Full-Service-Laundry-REPRICED!!","OR00188")</f>
       </c>
       <c t="inlineStr" r="B85">
         <is>
-          <t xml:space="preserve">Gourmet Fast Casual Italian Cuisine</t>
+          <t xml:space="preserve">Profitable Full Service Laundry REPRICED!!</t>
         </is>
       </c>
       <c r="C85" s="63">
-        <v>4800000</v>
+        <v>1700000</v>
       </c>
       <c t="inlineStr" r="D85">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Laguna</t>
         </is>
       </c>
       <c r="E85" s="65">
@@ -3940,41 +3930,31 @@
       </c>
       <c t="inlineStr" r="G85">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H85">
         <is>
-          <t xml:space="preserve">Restaurant</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I85">
-        <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J85">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="K85">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">- 30 Minutes South of Alabang</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c t="str" r="A86" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00190/Vocational-Learning-Center","OR00190")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00189/Gourmet-Fast-Casual-Italian-Cuisine","OR00189")</f>
       </c>
       <c t="inlineStr" r="B86">
         <is>
-          <t xml:space="preserve">Vocational Learning Center</t>
+          <t xml:space="preserve">Gourmet Fast Casual Italian Cuisine</t>
         </is>
       </c>
       <c r="C86" s="63">
-        <v>8000000</v>
+        <v>4800000</v>
       </c>
       <c t="inlineStr" r="D86">
         <is>
@@ -3989,17 +3969,22 @@
       </c>
       <c t="inlineStr" r="G86">
         <is>
-          <t xml:space="preserve">Education/Training</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H86">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="I86">
         <is>
-          <t xml:space="preserve">Eula Tolentino</t>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J86">
+        <is>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K86">
@@ -4010,15 +3995,15 @@
     </row>
     <row r="87">
       <c t="str" r="A87" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00191/Lip%2c-Lash%2c-Brow-Teaching-Salon-in-Malabon","OR00191")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00190/Vocational-Learning-Center","OR00190")</f>
       </c>
       <c t="inlineStr" r="B87">
         <is>
-          <t xml:space="preserve">Lip, Lash, Brow Teaching Salon in Malabon</t>
+          <t xml:space="preserve">Vocational Learning Center</t>
         </is>
       </c>
       <c r="C87" s="63">
-        <v>2400000</v>
+        <v>8000000</v>
       </c>
       <c t="inlineStr" r="D87">
         <is>
@@ -4033,12 +4018,17 @@
       </c>
       <c t="inlineStr" r="G87">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Education/Training</t>
         </is>
       </c>
       <c t="inlineStr" r="H87">
         <is>
-          <t xml:space="preserve">Beauty Parlor</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I87">
+        <is>
+          <t xml:space="preserve">Eula Tolentino</t>
         </is>
       </c>
       <c t="inlineStr" r="K87">
@@ -4049,19 +4039,19 @@
     </row>
     <row r="88">
       <c t="str" r="A88" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00193/Established-Laundry-Shop-in-Busy-Manila-Location","OR00193")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00191/Lip%2c-Lash%2c-Brow-Teaching-Salon-in-Malabon","OR00191")</f>
       </c>
       <c t="inlineStr" r="B88">
         <is>
-          <t xml:space="preserve">Established Laundry Shop in Busy Manila Location</t>
+          <t xml:space="preserve">Lip, Lash, Brow Teaching Salon in Malabon</t>
         </is>
       </c>
       <c r="C88" s="63">
-        <v>1350000</v>
+        <v>2400000</v>
       </c>
       <c t="inlineStr" r="D88">
         <is>
-          <t xml:space="preserve">Manila</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E88" s="65">
@@ -4072,17 +4062,12 @@
       </c>
       <c t="inlineStr" r="G88">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H88">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I88">
-        <is>
-          <t xml:space="preserve">Mario Bate</t>
+          <t xml:space="preserve">Beauty Parlor</t>
         </is>
       </c>
       <c t="inlineStr" r="K88">
@@ -4093,19 +4078,19 @@
     </row>
     <row r="89">
       <c t="str" r="A89" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00194/Famous-Italian-Restaurant-in-Strategic-Location","OR00194")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00193/Established-Laundry-Shop-in-Busy-Manila-Location","OR00193")</f>
       </c>
       <c t="inlineStr" r="B89">
         <is>
-          <t xml:space="preserve">Famous Italian Restaurant in Strategic Location</t>
+          <t xml:space="preserve">Established Laundry Shop in Busy Manila Location</t>
         </is>
       </c>
       <c r="C89" s="63">
-        <v>4700000</v>
+        <v>1350000</v>
       </c>
       <c t="inlineStr" r="D89">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Manila</t>
         </is>
       </c>
       <c r="E89" s="65">
@@ -4116,22 +4101,17 @@
       </c>
       <c t="inlineStr" r="G89">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H89">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I89">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J89">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Mario Bate</t>
         </is>
       </c>
       <c t="inlineStr" r="K89">
@@ -4142,15 +4122,15 @@
     </row>
     <row r="90">
       <c t="str" r="A90" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00195/SCALE-UP-YOUR-OWN-BUSINESS-SOLUTIONS-FIRM","OR00195")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00194/Famous-Italian-Restaurant-in-Strategic-Location","OR00194")</f>
       </c>
       <c t="inlineStr" r="B90">
         <is>
-          <t xml:space="preserve">SCALE UP YOUR OWN BUSINESS SOLUTIONS FIRM</t>
+          <t xml:space="preserve">Famous Italian Restaurant in Strategic Location</t>
         </is>
       </c>
       <c r="C90" s="63">
-        <v>6000000</v>
+        <v>4700000</v>
       </c>
       <c t="inlineStr" r="D90">
         <is>
@@ -4165,12 +4145,22 @@
       </c>
       <c t="inlineStr" r="G90">
         <is>
-          <t xml:space="preserve">Professional</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H90">
         <is>
-          <t xml:space="preserve">Accounting</t>
+          <t xml:space="preserve">Restaurant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I90">
+        <is>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J90">
+        <is>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K90">
@@ -4181,15 +4171,15 @@
     </row>
     <row r="91">
       <c t="str" r="A91" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00201/Newly-Renovated-Salon-in-Makati-Strategic-Location","OR00201")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00195/SCALE-UP-YOUR-OWN-BUSINESS-SOLUTIONS-FIRM","OR00195")</f>
       </c>
       <c t="inlineStr" r="B91">
         <is>
-          <t xml:space="preserve">Newly Renovated Salon in Makati Strategic Location</t>
+          <t xml:space="preserve">SCALE UP YOUR OWN BUSINESS SOLUTIONS FIRM</t>
         </is>
       </c>
       <c r="C91" s="63">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c t="inlineStr" r="D91">
         <is>
@@ -4204,12 +4194,12 @@
       </c>
       <c t="inlineStr" r="G91">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Professional</t>
         </is>
       </c>
       <c t="inlineStr" r="H91">
         <is>
-          <t xml:space="preserve">Beauty Salon</t>
+          <t xml:space="preserve">Accounting</t>
         </is>
       </c>
       <c t="inlineStr" r="K91">
@@ -4220,15 +4210,15 @@
     </row>
     <row r="92">
       <c t="str" r="A92" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00205/Profitable-Wholesale%252fRetail-of-Stationery-and-Office-Supplies","OR00205")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00201/Newly-Renovated-Salon-in-Makati-Strategic-Location","OR00201")</f>
       </c>
       <c t="inlineStr" r="B92">
         <is>
-          <t xml:space="preserve">Profitable Wholesale/Retail of Stationery and Office Supplies</t>
+          <t xml:space="preserve">Newly Renovated Salon in Makati Strategic Location</t>
         </is>
       </c>
       <c r="C92" s="63">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c t="inlineStr" r="D92">
         <is>
@@ -4243,22 +4233,12 @@
       </c>
       <c t="inlineStr" r="G92">
         <is>
-          <t xml:space="preserve">Import/Export/Wholesale</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H92">
         <is>
-          <t xml:space="preserve">Wholesale - General</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I92">
-        <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J92">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Beauty Salon</t>
         </is>
       </c>
       <c t="inlineStr" r="K92">
@@ -4269,19 +4249,19 @@
     </row>
     <row r="93">
       <c t="str" r="A93" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00206/The-Pioneer-of-Authentic-Japanese-Cuisine-in--the-Philippines","OR00206")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00205/Profitable-Wholesale%252fRetail-of-Stationery-and-Office-Supplies","OR00205")</f>
       </c>
       <c t="inlineStr" r="B93">
         <is>
-          <t xml:space="preserve">The Pioneer of Authentic Japanese Cuisine in  the Philippines</t>
+          <t xml:space="preserve">Profitable Wholesale/Retail of Stationery and Office Supplies</t>
         </is>
       </c>
       <c r="C93" s="63">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c t="inlineStr" r="D93">
         <is>
-          <t xml:space="preserve">Manila</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E93" s="65">
@@ -4292,17 +4272,22 @@
       </c>
       <c t="inlineStr" r="G93">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Import/Export/Wholesale</t>
         </is>
       </c>
       <c t="inlineStr" r="H93">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Wholesale - General</t>
         </is>
       </c>
       <c t="inlineStr" r="I93">
         <is>
           <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J93">
+        <is>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K93">
@@ -4313,19 +4298,19 @@
     </row>
     <row r="94">
       <c t="str" r="A94" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00208/LINE-X-Licensee-Recruitment","OR00208")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00206/The-Pioneer-of-Authentic-Japanese-Cuisine-in--the-Philippines","OR00206")</f>
       </c>
       <c t="inlineStr" r="B94">
         <is>
-          <t xml:space="preserve">LINE X Licensee Recruitment</t>
+          <t xml:space="preserve">The Pioneer of Authentic Japanese Cuisine in  the Philippines</t>
         </is>
       </c>
       <c r="C94" s="63">
-        <v>3500000</v>
+        <v>10000000</v>
       </c>
       <c t="inlineStr" r="D94">
         <is>
-          <t xml:space="preserve">National Capital Region</t>
+          <t xml:space="preserve">Manila</t>
         </is>
       </c>
       <c r="E94" s="65">
@@ -4336,12 +4321,17 @@
       </c>
       <c t="inlineStr" r="G94">
         <is>
-          <t xml:space="preserve">Retail General</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H94">
         <is>
-          <t xml:space="preserve">Homeware/Hardware</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I94">
+        <is>
+          <t xml:space="preserve">Dan R Francisco</t>
         </is>
       </c>
       <c t="inlineStr" r="K94">
@@ -4352,19 +4342,19 @@
     </row>
     <row r="95">
       <c t="str" r="A95" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00213/24%252f7-Resto-Bar-Captures-Most-BPO-Market","OR00213")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00208/LINE-X-Licensee-Recruitment","OR00208")</f>
       </c>
       <c t="inlineStr" r="B95">
         <is>
-          <t xml:space="preserve">24/7 Resto Bar Captures Most BPO Market</t>
+          <t xml:space="preserve">LINE X Licensee Recruitment</t>
         </is>
       </c>
       <c r="C95" s="63">
-        <v>5500000</v>
+        <v>3500000</v>
       </c>
       <c t="inlineStr" r="D95">
         <is>
-          <t xml:space="preserve">Muntinlupa</t>
+          <t xml:space="preserve">National Capital Region</t>
         </is>
       </c>
       <c r="E95" s="65">
@@ -4375,12 +4365,12 @@
       </c>
       <c t="inlineStr" r="G95">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Retail General</t>
         </is>
       </c>
       <c t="inlineStr" r="H95">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Homeware/Hardware</t>
         </is>
       </c>
       <c t="inlineStr" r="K95">
@@ -4391,19 +4381,19 @@
     </row>
     <row r="96">
       <c t="str" r="A96" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00214/A-Charming-Nail-Salon-and-Day-Spa-in-the-South","OR00214")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00213/24%252f7-Resto-Bar-Captures-Most-BPO-Market","OR00213")</f>
       </c>
       <c t="inlineStr" r="B96">
         <is>
-          <t xml:space="preserve">A Charming Nail Salon and Day Spa in the South</t>
+          <t xml:space="preserve">24/7 Resto Bar Captures Most BPO Market</t>
         </is>
       </c>
       <c r="C96" s="63">
-        <v>1500000</v>
+        <v>5500000</v>
       </c>
       <c t="inlineStr" r="D96">
         <is>
-          <t xml:space="preserve">Cavite</t>
+          <t xml:space="preserve">Muntinlupa</t>
         </is>
       </c>
       <c r="E96" s="65">
@@ -4414,17 +4404,12 @@
       </c>
       <c t="inlineStr" r="G96">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H96">
         <is>
-          <t xml:space="preserve">Health Spa</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I96">
-        <is>
-          <t xml:space="preserve">Paul Vincent Balita</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="K96">
@@ -4435,19 +4420,19 @@
     </row>
     <row r="97">
       <c t="str" r="A97" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00215/Your-All-Time-Favorite-Resto-Bar","OR00215")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00214/A-Charming-Nail-Salon-and-Day-Spa-in-the-South","OR00214")</f>
       </c>
       <c t="inlineStr" r="B97">
         <is>
-          <t xml:space="preserve">Your All Time Favorite Resto Bar</t>
+          <t xml:space="preserve">A Charming Nail Salon and Day Spa in the South</t>
         </is>
       </c>
       <c r="C97" s="63">
-        <v>20000000</v>
+        <v>1500000</v>
       </c>
       <c t="inlineStr" r="D97">
         <is>
-          <t xml:space="preserve">Muntinlupa</t>
+          <t xml:space="preserve">Cavite</t>
         </is>
       </c>
       <c r="E97" s="65">
@@ -4458,12 +4443,12 @@
       </c>
       <c t="inlineStr" r="G97">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H97">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Health Spa</t>
         </is>
       </c>
       <c t="inlineStr" r="I97">
@@ -4479,19 +4464,19 @@
     </row>
     <row r="98">
       <c t="str" r="A98" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00216/Your-Top-notch-Dry-Clean-and-Laundry--Franchise","OR00216")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00215/Your-All-Time-Favorite-Resto-Bar","OR00215")</f>
       </c>
       <c t="inlineStr" r="B98">
         <is>
-          <t xml:space="preserve">Your Top notch Dry Clean and Laundry  Franchise</t>
+          <t xml:space="preserve">Your All Time Favorite Resto Bar</t>
         </is>
       </c>
       <c r="C98" s="63">
-        <v>1336000</v>
+        <v>20000000</v>
       </c>
       <c t="inlineStr" r="D98">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Muntinlupa</t>
         </is>
       </c>
       <c r="E98" s="65">
@@ -4502,12 +4487,12 @@
       </c>
       <c t="inlineStr" r="G98">
         <is>
-          <t xml:space="preserve">Franchise</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H98">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="I98">
@@ -4523,19 +4508,19 @@
     </row>
     <row r="99">
       <c t="str" r="A99" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00217/Packaging-Manufacturer-in-Cavite","OR00217")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00216/Your-Top-notch-Dry-Clean-and-Laundry--Franchise","OR00216")</f>
       </c>
       <c t="inlineStr" r="B99">
         <is>
-          <t xml:space="preserve">Packaging Manufacturer in Cavite</t>
+          <t xml:space="preserve">Your Top notch Dry Clean and Laundry  Franchise</t>
         </is>
       </c>
       <c r="C99" s="63">
-        <v>120000000</v>
+        <v>1336000</v>
       </c>
       <c t="inlineStr" r="D99">
         <is>
-          <t xml:space="preserve">Manila</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
       <c r="E99" s="65">
@@ -4546,17 +4531,17 @@
       </c>
       <c t="inlineStr" r="G99">
         <is>
-          <t xml:space="preserve">Industrial Manufacturing</t>
+          <t xml:space="preserve">Franchise</t>
         </is>
       </c>
       <c t="inlineStr" r="H99">
         <is>
-          <t xml:space="preserve">Paper/Printing</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I99">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
+          <t xml:space="preserve">Paul Vincent Balita</t>
         </is>
       </c>
       <c t="inlineStr" r="K99">
@@ -4567,19 +4552,19 @@
     </row>
     <row r="100">
       <c t="str" r="A100" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00220/Profitable-Crematory-with-Assets","OR00220")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00217/Packaging-Manufacturer-in-Cavite","OR00217")</f>
       </c>
       <c t="inlineStr" r="B100">
         <is>
-          <t xml:space="preserve">Profitable Crematory with Assets</t>
+          <t xml:space="preserve">Packaging Manufacturer in Cavite</t>
         </is>
       </c>
       <c r="C100" s="63">
-        <v>237000000</v>
+        <v>120000000</v>
       </c>
       <c t="inlineStr" r="D100">
         <is>
-          <t xml:space="preserve">Caloocan City</t>
+          <t xml:space="preserve">Manila</t>
         </is>
       </c>
       <c r="E100" s="65">
@@ -4590,17 +4575,17 @@
       </c>
       <c t="inlineStr" r="G100">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Industrial Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H100">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Paper/Printing</t>
         </is>
       </c>
       <c t="inlineStr" r="I100">
         <is>
-          <t xml:space="preserve">Poncho Claudio</t>
+          <t xml:space="preserve">Dan R Francisco</t>
         </is>
       </c>
       <c t="inlineStr" r="K100">
@@ -4611,19 +4596,19 @@
     </row>
     <row r="101">
       <c t="str" r="A101" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00221/Well-Known-Maker-of-Male-and-Female-Uniforms-for-Sale","OR00221")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00220/Profitable-Crematory-with-Assets","OR00220")</f>
       </c>
       <c t="inlineStr" r="B101">
         <is>
-          <t xml:space="preserve">Well Known Maker of Male and Female Uniforms for Sale</t>
+          <t xml:space="preserve">Profitable Crematory with Assets</t>
         </is>
       </c>
       <c r="C101" s="63">
-        <v>10000000</v>
+        <v>237000000</v>
       </c>
       <c t="inlineStr" r="D101">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Caloocan City</t>
         </is>
       </c>
       <c r="E101" s="65">
@@ -4634,12 +4619,17 @@
       </c>
       <c t="inlineStr" r="G101">
         <is>
-          <t xml:space="preserve">Industrial Manufacturing</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H101">
         <is>
-          <t xml:space="preserve">Clothing/Footwear</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I101">
+        <is>
+          <t xml:space="preserve">Poncho Claudio</t>
         </is>
       </c>
       <c t="inlineStr" r="K101">
@@ -4650,19 +4640,19 @@
     </row>
     <row r="102">
       <c t="str" r="A102" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00222/Own-a-Business-of-the-Future-with-this-Yoga-and-Wellness-Center","OR00222")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00221/Well-Known-Maker-of-Male-and-Female-Uniforms-for-Sale","OR00221")</f>
       </c>
       <c t="inlineStr" r="B102">
         <is>
-          <t xml:space="preserve">Own a Business of the Future with this Yoga and Wellness Center</t>
+          <t xml:space="preserve">Well Known Maker of Male and Female Uniforms for Sale</t>
         </is>
       </c>
       <c r="C102" s="63">
-        <v>4000000</v>
+        <v>10000000</v>
       </c>
       <c t="inlineStr" r="D102">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E102" s="65">
@@ -4673,40 +4663,35 @@
       </c>
       <c t="inlineStr" r="G102">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Industrial Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H102">
         <is>
-          <t xml:space="preserve">Therapies</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I102">
-        <is>
-          <t xml:space="preserve">Roberto Narciso</t>
+          <t xml:space="preserve">Clothing/Footwear</t>
         </is>
       </c>
       <c t="inlineStr" r="K102">
         <is>
-          <t xml:space="preserve">**REPRICED**</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c t="str" r="A103" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00223/NAIA-Shuttle-Service-to-Any-Point-in-Luzon","OR00223")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00222/Own-a-Business-of-the-Future-with-this-Yoga-and-Wellness-Center","OR00222")</f>
       </c>
       <c t="inlineStr" r="B103">
         <is>
-          <t xml:space="preserve">NAIA Shuttle Service to Any Point in Luzon</t>
+          <t xml:space="preserve">Own a Business of the Future with this Yoga and Wellness Center</t>
         </is>
       </c>
       <c r="C103" s="63">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c t="inlineStr" r="D103">
         <is>
-          <t xml:space="preserve">Pasay City</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E103" s="65">
@@ -4717,12 +4702,12 @@
       </c>
       <c t="inlineStr" r="G103">
         <is>
-          <t xml:space="preserve">Transport/Distribution</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H103">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Therapies</t>
         </is>
       </c>
       <c t="inlineStr" r="I103">
@@ -4732,25 +4717,25 @@
       </c>
       <c t="inlineStr" r="K103">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">**REPRICED**</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c t="str" r="A104" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00226/Games-Center%2c-A-Great-Buy","OR00226")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00223/NAIA-Shuttle-Service-to-Any-Point-in-Luzon","OR00223")</f>
       </c>
       <c t="inlineStr" r="B104">
         <is>
-          <t xml:space="preserve">Games Center, A Great Buy</t>
+          <t xml:space="preserve">NAIA Shuttle Service to Any Point in Luzon</t>
         </is>
       </c>
       <c r="C104" s="63">
-        <v>5126000</v>
+        <v>18000000</v>
       </c>
       <c t="inlineStr" r="D104">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Pasay City</t>
         </is>
       </c>
       <c r="E104" s="65">
@@ -4761,17 +4746,17 @@
       </c>
       <c t="inlineStr" r="G104">
         <is>
-          <t xml:space="preserve">Leisure/Entertainment</t>
+          <t xml:space="preserve">Transport/Distribution</t>
         </is>
       </c>
       <c t="inlineStr" r="H104">
         <is>
-          <t xml:space="preserve">Amusements</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I104">
         <is>
-          <t xml:space="preserve">Maria Morris</t>
+          <t xml:space="preserve">Roberto Narciso</t>
         </is>
       </c>
       <c t="inlineStr" r="K104">
@@ -4782,15 +4767,15 @@
     </row>
     <row r="105">
       <c t="str" r="A105" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00227/Amusement-Center-In-Excellent-Location","OR00227")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00226/Games-Center%2c-A-Great-Buy","OR00226")</f>
       </c>
       <c t="inlineStr" r="B105">
         <is>
-          <t xml:space="preserve">Amusement Center In Excellent Location</t>
+          <t xml:space="preserve">Games Center, A Great Buy</t>
         </is>
       </c>
       <c r="C105" s="63">
-        <v>9000000</v>
+        <v>5126000</v>
       </c>
       <c t="inlineStr" r="D105">
         <is>
@@ -4826,15 +4811,15 @@
     </row>
     <row r="106">
       <c t="str" r="A106" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00228/Funfair-Center%2c-What-a-deal!","OR00228")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00227/Amusement-Center-In-Excellent-Location","OR00227")</f>
       </c>
       <c t="inlineStr" r="B106">
         <is>
-          <t xml:space="preserve">Funfair Center, What a deal!</t>
+          <t xml:space="preserve">Amusement Center In Excellent Location</t>
         </is>
       </c>
       <c r="C106" s="63">
-        <v>3200000</v>
+        <v>9000000</v>
       </c>
       <c t="inlineStr" r="D106">
         <is>
@@ -4870,19 +4855,19 @@
     </row>
     <row r="107">
       <c t="str" r="A107" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00230/Your-Profitable-Medical-and-Diagnostic-Center-in-Makati","OR00230")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00228/Funfair-Center%2c-What-a-deal!","OR00228")</f>
       </c>
       <c t="inlineStr" r="B107">
         <is>
-          <t xml:space="preserve">Your Profitable Medical and Diagnostic Center in Makati</t>
+          <t xml:space="preserve">Funfair Center, What a deal!</t>
         </is>
       </c>
       <c r="C107" s="63">
-        <v>11500000</v>
+        <v>3200000</v>
       </c>
       <c t="inlineStr" r="D107">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E107" s="65">
@@ -4893,17 +4878,17 @@
       </c>
       <c t="inlineStr" r="G107">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Leisure/Entertainment</t>
         </is>
       </c>
       <c t="inlineStr" r="H107">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Amusements</t>
         </is>
       </c>
       <c t="inlineStr" r="I107">
         <is>
-          <t xml:space="preserve">Paul Vincent Balita</t>
+          <t xml:space="preserve">Maria Morris</t>
         </is>
       </c>
       <c t="inlineStr" r="K107">
@@ -4914,19 +4899,19 @@
     </row>
     <row r="108">
       <c t="str" r="A108" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00231/Profitable-Garments-Factory-of-Leading-Apparels","OR00231")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00230/Your-Profitable-Medical-and-Diagnostic-Center-in-Makati","OR00230")</f>
       </c>
       <c t="inlineStr" r="B108">
         <is>
-          <t xml:space="preserve">Profitable Garments Factory of Leading Apparels</t>
+          <t xml:space="preserve">Your Profitable Medical and Diagnostic Center in Makati</t>
         </is>
       </c>
       <c r="C108" s="63">
-        <v>3000000</v>
+        <v>11500000</v>
       </c>
       <c t="inlineStr" r="D108">
         <is>
-          <t xml:space="preserve">Mandaluyong</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
       <c r="E108" s="65">
@@ -4937,17 +4922,17 @@
       </c>
       <c t="inlineStr" r="G108">
         <is>
-          <t xml:space="preserve">Industrial Manufacturing</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H108">
         <is>
-          <t xml:space="preserve">Clothing/Footwear</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I108">
         <is>
-          <t xml:space="preserve">Efren Pascual</t>
+          <t xml:space="preserve">Paul Vincent Balita</t>
         </is>
       </c>
       <c t="inlineStr" r="K108">
@@ -4958,19 +4943,19 @@
     </row>
     <row r="109">
       <c t="str" r="A109" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00232/Hot-Laundry-Shop-in-bustling--Mall","OR00232")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00231/Profitable-Garments-Factory-of-Leading-Apparels","OR00231")</f>
       </c>
       <c t="inlineStr" r="B109">
         <is>
-          <t xml:space="preserve">Hot Laundry Shop in bustling  Mall</t>
+          <t xml:space="preserve">Profitable Garments Factory of Leading Apparels</t>
         </is>
       </c>
       <c r="C109" s="63">
-        <v>1400000</v>
+        <v>3000000</v>
       </c>
       <c t="inlineStr" r="D109">
         <is>
-          <t xml:space="preserve">Muntinlupa</t>
+          <t xml:space="preserve">Mandaluyong</t>
         </is>
       </c>
       <c r="E109" s="65">
@@ -4981,12 +4966,17 @@
       </c>
       <c t="inlineStr" r="G109">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Industrial Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H109">
         <is>
-          <t xml:space="preserve">Cleaning</t>
+          <t xml:space="preserve">Clothing/Footwear</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I109">
+        <is>
+          <t xml:space="preserve">Efren Pascual</t>
         </is>
       </c>
       <c t="inlineStr" r="K109">
@@ -4997,19 +4987,19 @@
     </row>
     <row r="110">
       <c t="str" r="A110" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00234/Healthy-and-organic-smoothie-business-with-great-expansion-and-franchise-opportunities!","OR00234")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00232/Hot-Laundry-Shop-in-bustling--Mall","OR00232")</f>
       </c>
       <c t="inlineStr" r="B110">
         <is>
-          <t xml:space="preserve">Healthy and organic smoothie business with great expansion and franchise opportunities!</t>
+          <t xml:space="preserve">Hot Laundry Shop in bustling  Mall</t>
         </is>
       </c>
       <c r="C110" s="63">
-        <v>2000000</v>
+        <v>1400000</v>
       </c>
       <c t="inlineStr" r="D110">
         <is>
-          <t xml:space="preserve">National Capital Region</t>
+          <t xml:space="preserve">Muntinlupa</t>
         </is>
       </c>
       <c r="E110" s="65">
@@ -5020,17 +5010,12 @@
       </c>
       <c t="inlineStr" r="G110">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H110">
         <is>
-          <t xml:space="preserve">Juice/Salad Bar</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I110">
-        <is>
-          <t xml:space="preserve">Efren Pascual</t>
+          <t xml:space="preserve">Cleaning</t>
         </is>
       </c>
       <c t="inlineStr" r="K110">
@@ -5041,19 +5026,19 @@
     </row>
     <row r="111">
       <c t="str" r="A111" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00236/Excellently-Located-Mall-Restos-Contemporaneous-Sale-of-Shares-(Resto-A%26B)-Details-for-Resto-B","OR00236")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00234/Healthy-and-organic-smoothie-business-with-great-expansion-and-franchise-opportunities!","OR00234")</f>
       </c>
       <c t="inlineStr" r="B111">
         <is>
-          <t xml:space="preserve">Excellently Located Mall Restos Contemporaneous Sale of Shares (Resto A&amp;B) Details for Resto B</t>
+          <t xml:space="preserve">Healthy and organic smoothie business with great expansion and franchise opportunities!</t>
         </is>
       </c>
       <c r="C111" s="63">
-        <v>13000000</v>
+        <v>2000000</v>
       </c>
       <c t="inlineStr" r="D111">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">National Capital Region</t>
         </is>
       </c>
       <c r="E111" s="65">
@@ -5069,12 +5054,12 @@
       </c>
       <c t="inlineStr" r="H111">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Juice/Salad Bar</t>
         </is>
       </c>
       <c t="inlineStr" r="I111">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Efren Pascual</t>
         </is>
       </c>
       <c t="inlineStr" r="K111">
@@ -5085,19 +5070,19 @@
     </row>
     <row r="112">
       <c t="str" r="A112" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00238/Full-Service-Car-Repair-Center","OR00238")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00236/Excellently-Located-Mall-Restos-Contemporaneous-Sale-of-Shares-(Resto-A%26B)-Details-for-Resto-B","OR00236")</f>
       </c>
       <c t="inlineStr" r="B112">
         <is>
-          <t xml:space="preserve">Full Service Car Repair Center</t>
+          <t xml:space="preserve">Excellently Located Mall Restos Contemporaneous Sale of Shares (Resto A&amp;B) Details for Resto B</t>
         </is>
       </c>
       <c r="C112" s="63">
-        <v>3000000</v>
+        <v>13000000</v>
       </c>
       <c t="inlineStr" r="D112">
         <is>
-          <t xml:space="preserve">Pasig</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E112" s="65">
@@ -5108,17 +5093,17 @@
       </c>
       <c t="inlineStr" r="G112">
         <is>
-          <t xml:space="preserve">Automotive</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H112">
         <is>
-          <t xml:space="preserve">Accessories/Parts</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="I112">
         <is>
-          <t xml:space="preserve">Mario Bate</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K112">
@@ -5129,19 +5114,19 @@
     </row>
     <row r="113">
       <c t="str" r="A113" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00239/Profitable-Korean-Restaurant-and-Grill","OR00239")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00238/Full-Service-Car-Repair-Center","OR00238")</f>
       </c>
       <c t="inlineStr" r="B113">
         <is>
-          <t xml:space="preserve">Profitable Korean Restaurant and Grill</t>
+          <t xml:space="preserve">Full Service Car Repair Center</t>
         </is>
       </c>
       <c r="C113" s="63">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c t="inlineStr" r="D113">
         <is>
-          <t xml:space="preserve">Muntinlupa</t>
+          <t xml:space="preserve">Pasig</t>
         </is>
       </c>
       <c r="E113" s="65">
@@ -5152,17 +5137,17 @@
       </c>
       <c t="inlineStr" r="G113">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Automotive</t>
         </is>
       </c>
       <c t="inlineStr" r="H113">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Accessories/Parts</t>
         </is>
       </c>
       <c t="inlineStr" r="I113">
         <is>
-          <t xml:space="preserve">Roberto Narciso</t>
+          <t xml:space="preserve">Mario Bate</t>
         </is>
       </c>
       <c t="inlineStr" r="K113">
@@ -5173,15 +5158,15 @@
     </row>
     <row r="114">
       <c t="str" r="A114" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00242/Authentic-Filipino-Resto-with-captured-condo-market","OR00242")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00239/Profitable-Korean-Restaurant-and-Grill","OR00239")</f>
       </c>
       <c t="inlineStr" r="B114">
         <is>
-          <t xml:space="preserve">Authentic Filipino Resto with captured condo market</t>
+          <t xml:space="preserve">Profitable Korean Restaurant and Grill</t>
         </is>
       </c>
       <c r="C114" s="63">
-        <v>4500000</v>
+        <v>2500000</v>
       </c>
       <c t="inlineStr" r="D114">
         <is>
@@ -5196,12 +5181,17 @@
       </c>
       <c t="inlineStr" r="G114">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H114">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Restaurant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I114">
+        <is>
+          <t xml:space="preserve">Roberto Narciso</t>
         </is>
       </c>
       <c t="inlineStr" r="K114">
@@ -5212,40 +5202,35 @@
     </row>
     <row r="115">
       <c t="str" r="A115" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00243/Nail-and-Body-Spa-in-High-Foot-Traffic-QC-Mall","OR00243")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00242/Authentic-Filipino-Resto-with-captured-condo-market","OR00242")</f>
       </c>
       <c t="inlineStr" r="B115">
         <is>
-          <t xml:space="preserve">Nail and Body Spa in High Foot Traffic QC Mall</t>
+          <t xml:space="preserve">Authentic Filipino Resto with captured condo market</t>
         </is>
       </c>
       <c r="C115" s="63">
-        <v>2000000</v>
+        <v>4500000</v>
       </c>
       <c t="inlineStr" r="D115">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Muntinlupa</t>
         </is>
       </c>
       <c r="E115" s="65">
         <v>0</v>
       </c>
-      <c r="F115" s="63">
-        <v>50000</v>
+      <c r="F115" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G115">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H115">
         <is>
-          <t xml:space="preserve">Nails</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I115">
-        <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="K115">
@@ -5256,63 +5241,63 @@
     </row>
     <row r="116">
       <c t="str" r="A116" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00247/Resort-Themed-Restaurant-Catering-to-A-Healthy-LIfestyle","OR00247")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00243/Nail-and-Body-Spa-in-High-Foot-Traffic-QC-Mall","OR00243")</f>
       </c>
       <c t="inlineStr" r="B116">
         <is>
-          <t xml:space="preserve">Resort Themed Restaurant Catering to A Healthy LIfestyle</t>
+          <t xml:space="preserve">Nail and Body Spa in High Foot Traffic QC Mall</t>
         </is>
       </c>
       <c r="C116" s="63">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c t="inlineStr" r="D116">
         <is>
-          <t xml:space="preserve">Boracay</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E116" s="65">
         <v>0</v>
       </c>
-      <c r="F116" s="65">
-        <v>0</v>
+      <c r="F116" s="63">
+        <v>50000</v>
       </c>
       <c t="inlineStr" r="G116">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H116">
         <is>
-          <t xml:space="preserve">Bars/Nightclubs</t>
+          <t xml:space="preserve">Nails</t>
         </is>
       </c>
       <c t="inlineStr" r="I116">
         <is>
-          <t xml:space="preserve">Jard Gerona</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K116">
         <is>
-          <t xml:space="preserve">for 40% stake</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c t="str" r="A117" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00249/A-Lucrative-Laundry-Business-You-Would-Love-to-Own!","OR00249")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00247/Resort-Themed-Restaurant-Catering-to-A-Healthy-LIfestyle","OR00247")</f>
       </c>
       <c t="inlineStr" r="B117">
         <is>
-          <t xml:space="preserve">A Lucrative Laundry Business You Would Love to Own!</t>
+          <t xml:space="preserve">Resort Themed Restaurant Catering to A Healthy LIfestyle</t>
         </is>
       </c>
       <c r="C117" s="63">
-        <v>2200000</v>
+        <v>10000000</v>
       </c>
       <c t="inlineStr" r="D117">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Boracay</t>
         </is>
       </c>
       <c r="E117" s="65">
@@ -5323,36 +5308,36 @@
       </c>
       <c t="inlineStr" r="G117">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H117">
         <is>
-          <t xml:space="preserve">Cleaning</t>
+          <t xml:space="preserve">Bars/Nightclubs</t>
         </is>
       </c>
       <c t="inlineStr" r="I117">
         <is>
-          <t xml:space="preserve">Roberto Narciso</t>
+          <t xml:space="preserve">Jard Gerona</t>
         </is>
       </c>
       <c t="inlineStr" r="K117">
         <is>
-          <t xml:space="preserve">*Re-priced*</t>
+          <t xml:space="preserve">for 40% stake</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c t="str" r="A118" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00255/SPA-Business-In-Major-Quezon-City-Street","OR00255")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00249/A-Lucrative-Laundry-Business-You-Would-Love-to-Own!","OR00249")</f>
       </c>
       <c t="inlineStr" r="B118">
         <is>
-          <t xml:space="preserve">SPA Business In Major Quezon City Street</t>
+          <t xml:space="preserve">A Lucrative Laundry Business You Would Love to Own!</t>
         </is>
       </c>
       <c r="C118" s="63">
-        <v>1500000</v>
+        <v>2200000</v>
       </c>
       <c t="inlineStr" r="D118">
         <is>
@@ -5367,40 +5352,40 @@
       </c>
       <c t="inlineStr" r="G118">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H118">
         <is>
-          <t xml:space="preserve">Health Spa</t>
+          <t xml:space="preserve">Cleaning</t>
         </is>
       </c>
       <c t="inlineStr" r="I118">
         <is>
-          <t xml:space="preserve">Augusto Soliman</t>
+          <t xml:space="preserve">Roberto Narciso</t>
         </is>
       </c>
       <c t="inlineStr" r="K118">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">*Re-priced*</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c t="str" r="A119" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00258/A-Chic-Designer-Clothes-Rental-Business","OR00258")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00255/SPA-Business-In-Major-Quezon-City-Street","OR00255")</f>
       </c>
       <c t="inlineStr" r="B119">
         <is>
-          <t xml:space="preserve">A Chic Designer Clothes Rental Business</t>
+          <t xml:space="preserve">SPA Business In Major Quezon City Street</t>
         </is>
       </c>
       <c r="C119" s="63">
-        <v>700000</v>
+        <v>1500000</v>
       </c>
       <c t="inlineStr" r="D119">
         <is>
-          <t xml:space="preserve">Marikina</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E119" s="65">
@@ -5411,12 +5396,17 @@
       </c>
       <c t="inlineStr" r="G119">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H119">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Health Spa</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I119">
+        <is>
+          <t xml:space="preserve">Augusto Soliman</t>
         </is>
       </c>
       <c t="inlineStr" r="K119">
@@ -5427,19 +5417,19 @@
     </row>
     <row r="120">
       <c t="str" r="A120" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00262/Rapidly-Growing-Coffee-and-Baking-Goods-Distributor","OR00262")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00258/A-Chic-Designer-Clothes-Rental-Business","OR00258")</f>
       </c>
       <c t="inlineStr" r="B120">
         <is>
-          <t xml:space="preserve">Rapidly Growing Coffee and Baking Goods Distributor</t>
+          <t xml:space="preserve">A Chic Designer Clothes Rental Business</t>
         </is>
       </c>
       <c r="C120" s="63">
-        <v>190000000</v>
+        <v>700000</v>
       </c>
       <c t="inlineStr" r="D120">
         <is>
-          <t xml:space="preserve">Manila</t>
+          <t xml:space="preserve">Marikina</t>
         </is>
       </c>
       <c r="E120" s="65">
@@ -5450,22 +5440,12 @@
       </c>
       <c t="inlineStr" r="G120">
         <is>
-          <t xml:space="preserve">Transport/Distribution</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H120">
         <is>
-          <t xml:space="preserve">Wholesale</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I120">
-        <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J120">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="K120">
@@ -5476,19 +5456,19 @@
     </row>
     <row r="121">
       <c t="str" r="A121" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00268/Strategically-located-Industrial-Laundry","OR00268")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00262/Rapidly-Growing-Coffee-and-Baking-Goods-Distributor","OR00262")</f>
       </c>
       <c t="inlineStr" r="B121">
         <is>
-          <t xml:space="preserve">Strategically located Industrial Laundry</t>
+          <t xml:space="preserve">Rapidly Growing Coffee and Baking Goods Distributor</t>
         </is>
       </c>
       <c r="C121" s="63">
-        <v>18000000</v>
+        <v>190000000</v>
       </c>
       <c t="inlineStr" r="D121">
         <is>
-          <t xml:space="preserve">Makati</t>
+          <t xml:space="preserve">Manila</t>
         </is>
       </c>
       <c r="E121" s="65">
@@ -5499,12 +5479,22 @@
       </c>
       <c t="inlineStr" r="G121">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Transport/Distribution</t>
         </is>
       </c>
       <c t="inlineStr" r="H121">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Wholesale</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I121">
+        <is>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J121">
+        <is>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K121">
@@ -5515,19 +5505,19 @@
     </row>
     <row r="122">
       <c t="str" r="A122" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00271/Top-Grossing-Restaurant%252fCaf%c3%a8-with-Strong-Digital-Presence","OR00271")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00268/Strategically-located-Industrial-Laundry","OR00268")</f>
       </c>
       <c t="inlineStr" r="B122">
         <is>
-          <t xml:space="preserve">Top Grossing Restaurant/Cafè with Strong Digital Presence</t>
+          <t xml:space="preserve">Strategically located Industrial Laundry</t>
         </is>
       </c>
       <c r="C122" s="63">
-        <v>1000000</v>
+        <v>18000000</v>
       </c>
       <c t="inlineStr" r="D122">
         <is>
-          <t xml:space="preserve">Rizal</t>
+          <t xml:space="preserve">Makati</t>
         </is>
       </c>
       <c r="E122" s="65">
@@ -5538,17 +5528,12 @@
       </c>
       <c t="inlineStr" r="G122">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H122">
         <is>
-          <t xml:space="preserve">Coffee Shop</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I122">
-        <is>
-          <t xml:space="preserve">Ricky Gumaru</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="K122">
@@ -5559,19 +5544,19 @@
     </row>
     <row r="123">
       <c t="str" r="A123" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00272/Low-fat-Milkshake-Franchise-with-High-Growth-Potential","OR00272")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00271/Top-Grossing-Restaurant%252fCaf%c3%a8-with-Strong-Digital-Presence","OR00271")</f>
       </c>
       <c t="inlineStr" r="B123">
         <is>
-          <t xml:space="preserve">Low fat Milkshake Franchise with High Growth Potential</t>
+          <t xml:space="preserve">Top Grossing Restaurant/Cafè with Strong Digital Presence</t>
         </is>
       </c>
       <c r="C123" s="63">
-        <v>1900000</v>
+        <v>1000000</v>
       </c>
       <c t="inlineStr" r="D123">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Rizal</t>
         </is>
       </c>
       <c r="E123" s="65">
@@ -5587,17 +5572,12 @@
       </c>
       <c t="inlineStr" r="H123">
         <is>
-          <t xml:space="preserve">Food Cart</t>
+          <t xml:space="preserve">Coffee Shop</t>
         </is>
       </c>
       <c t="inlineStr" r="I123">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J123">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Ricky Gumaru</t>
         </is>
       </c>
       <c t="inlineStr" r="K123">
@@ -5608,15 +5588,15 @@
     </row>
     <row r="124">
       <c t="str" r="A124" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00275/50-unit-Internet-and-Gaming-Caf%c3%a9-in-Antipolo","OR00275")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00272/Low-fat-Milkshake-Franchise-with-High-Growth-Potential","OR00272")</f>
       </c>
       <c t="inlineStr" r="B124">
         <is>
-          <t xml:space="preserve">50 unit Internet and Gaming Café in Antipolo</t>
+          <t xml:space="preserve">Low fat Milkshake Franchise with High Growth Potential</t>
         </is>
       </c>
       <c r="C124" s="63">
-        <v>2000000</v>
+        <v>1900000</v>
       </c>
       <c t="inlineStr" r="D124">
         <is>
@@ -5631,12 +5611,12 @@
       </c>
       <c t="inlineStr" r="G124">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H124">
         <is>
-          <t xml:space="preserve">Print/Photo/Video</t>
+          <t xml:space="preserve">Food Cart</t>
         </is>
       </c>
       <c t="inlineStr" r="I124">
@@ -5657,19 +5637,19 @@
     </row>
     <row r="125">
       <c t="str" r="A125" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00278/Mall-Based-Authentic-Japanese-Ramen-Restaurant","OR00278")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00275/50-unit-Internet-and-Gaming-Caf%c3%a9-in-Antipolo","OR00275")</f>
       </c>
       <c t="inlineStr" r="B125">
         <is>
-          <t xml:space="preserve">Mall Based Authentic Japanese Ramen Restaurant</t>
+          <t xml:space="preserve">50 unit Internet and Gaming Café in Antipolo</t>
         </is>
       </c>
       <c r="C125" s="63">
-        <v>350000075</v>
+        <v>2000000</v>
       </c>
       <c t="inlineStr" r="D125">
         <is>
-          <t xml:space="preserve">National Capital Region</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E125" s="65">
@@ -5680,35 +5660,45 @@
       </c>
       <c t="inlineStr" r="G125">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H125">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Print/Photo/Video</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I125">
+        <is>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J125">
+        <is>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K125">
         <is>
-          <t xml:space="preserve">75% stake</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c t="str" r="A126" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00282/A-Party-Place-That-Can-Make-Money","OR00282")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00278/Mall-Based-Authentic-Japanese-Ramen-Restaurant","OR00278")</f>
       </c>
       <c t="inlineStr" r="B126">
         <is>
-          <t xml:space="preserve">A Party Place That Can Make Money</t>
+          <t xml:space="preserve">Mall Based Authentic Japanese Ramen Restaurant</t>
         </is>
       </c>
       <c r="C126" s="63">
-        <v>10000000</v>
+        <v>350000075</v>
       </c>
       <c t="inlineStr" r="D126">
         <is>
-          <t xml:space="preserve">Taguig</t>
+          <t xml:space="preserve">National Capital Region</t>
         </is>
       </c>
       <c r="E126" s="65">
@@ -5727,32 +5717,27 @@
           <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
-      <c t="inlineStr" r="I126">
-        <is>
-          <t xml:space="preserve">Jard Gerona</t>
-        </is>
-      </c>
       <c t="inlineStr" r="K126">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">75% stake</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c t="str" r="A127" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00285/Own-A-Start-Up-Industrial-Laundry-Business-Now","OR00285")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00282/A-Party-Place-That-Can-Make-Money","OR00282")</f>
       </c>
       <c t="inlineStr" r="B127">
         <is>
-          <t xml:space="preserve">Own A Start Up Industrial Laundry Business Now</t>
+          <t xml:space="preserve">A Party Place That Can Make Money</t>
         </is>
       </c>
       <c r="C127" s="63">
-        <v>6800000</v>
+        <v>10000000</v>
       </c>
       <c t="inlineStr" r="D127">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Taguig</t>
         </is>
       </c>
       <c r="E127" s="65">
@@ -5763,12 +5748,17 @@
       </c>
       <c t="inlineStr" r="G127">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H127">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Restaurant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I127">
+        <is>
+          <t xml:space="preserve">Jard Gerona</t>
         </is>
       </c>
       <c t="inlineStr" r="K127">
@@ -5779,19 +5769,19 @@
     </row>
     <row r="128">
       <c t="str" r="A128" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00287/Top-Notch-Chiropractic-Clinic-in-Metro-Manila","OR00287")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00285/Own-A-Start-Up-Industrial-Laundry-Business-Now","OR00285")</f>
       </c>
       <c t="inlineStr" r="B128">
         <is>
-          <t xml:space="preserve">Top Notch Chiropractic Clinic in Metro Manila</t>
+          <t xml:space="preserve">Own A Start Up Industrial Laundry Business Now</t>
         </is>
       </c>
       <c r="C128" s="63">
-        <v>5600000</v>
+        <v>6800000</v>
       </c>
       <c t="inlineStr" r="D128">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E128" s="65">
@@ -5802,7 +5792,7 @@
       </c>
       <c t="inlineStr" r="G128">
         <is>
-          <t xml:space="preserve">Professional</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H128">
@@ -5818,19 +5808,19 @@
     </row>
     <row r="129">
       <c t="str" r="A129" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00290/Profitable-%26-Easy-to-Manage-Cebu-Laundry-Chain","OR00290")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00287/Top-Notch-Chiropractic-Clinic-in-Metro-Manila","OR00287")</f>
       </c>
       <c t="inlineStr" r="B129">
         <is>
-          <t xml:space="preserve">Profitable &amp; Easy to Manage Cebu Laundry Chain</t>
+          <t xml:space="preserve">Top Notch Chiropractic Clinic in Metro Manila</t>
         </is>
       </c>
       <c r="C129" s="63">
-        <v>25000000</v>
+        <v>5600000</v>
       </c>
       <c t="inlineStr" r="D129">
         <is>
-          <t xml:space="preserve">Metro Cebu</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
       <c r="E129" s="65">
@@ -5841,40 +5831,35 @@
       </c>
       <c t="inlineStr" r="G129">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Professional</t>
         </is>
       </c>
       <c t="inlineStr" r="H129">
         <is>
-          <t xml:space="preserve">Cleaning</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I129">
-        <is>
-          <t xml:space="preserve">Roberto Narciso</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="K129">
         <is>
-          <t xml:space="preserve">plus any applicable taxes</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c t="str" r="A130" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00292/Profitable-Manpower-Service-company","OR00292")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00290/Profitable-%26-Easy-to-Manage-Cebu-Laundry-Chain","OR00290")</f>
       </c>
       <c t="inlineStr" r="B130">
         <is>
-          <t xml:space="preserve">Profitable Manpower Service company</t>
+          <t xml:space="preserve">Profitable &amp; Easy to Manage Cebu Laundry Chain</t>
         </is>
       </c>
       <c r="C130" s="63">
-        <v>275000000</v>
+        <v>25000000</v>
       </c>
       <c t="inlineStr" r="D130">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Metro Cebu</t>
         </is>
       </c>
       <c r="E130" s="65">
@@ -5890,26 +5875,31 @@
       </c>
       <c t="inlineStr" r="H130">
         <is>
-          <t xml:space="preserve">Human Resource</t>
+          <t xml:space="preserve">Cleaning</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I130">
+        <is>
+          <t xml:space="preserve">Roberto Narciso</t>
         </is>
       </c>
       <c t="inlineStr" r="K130">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">plus any applicable taxes</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c t="str" r="A131" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00294/Triple-A-Construction-Company","OR00294")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00292/Profitable-Manpower-Service-company","OR00292")</f>
       </c>
       <c t="inlineStr" r="B131">
         <is>
-          <t xml:space="preserve">Triple A Construction Company</t>
+          <t xml:space="preserve">Profitable Manpower Service company</t>
         </is>
       </c>
       <c r="C131" s="63">
-        <v>1000000000</v>
+        <v>275000000</v>
       </c>
       <c t="inlineStr" r="D131">
         <is>
@@ -5924,17 +5914,12 @@
       </c>
       <c t="inlineStr" r="G131">
         <is>
-          <t xml:space="preserve">Building/Construction</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H131">
         <is>
-          <t xml:space="preserve">Contractor</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I131">
-        <is>
-          <t xml:space="preserve">Dan R Francisco</t>
+          <t xml:space="preserve">Human Resource</t>
         </is>
       </c>
       <c t="inlineStr" r="K131">
@@ -5945,19 +5930,19 @@
     </row>
     <row r="132">
       <c t="str" r="A132" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00295/Real-Chinese-Cuisine-in-busy-QC","OR00295")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00294/Triple-A-Construction-Company","OR00294")</f>
       </c>
       <c t="inlineStr" r="B132">
         <is>
-          <t xml:space="preserve">Real Chinese Cuisine in busy QC</t>
+          <t xml:space="preserve">Triple A Construction Company</t>
         </is>
       </c>
       <c r="C132" s="63">
-        <v>6000000</v>
+        <v>1000000000</v>
       </c>
       <c t="inlineStr" r="D132">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E132" s="65">
@@ -5968,12 +5953,17 @@
       </c>
       <c t="inlineStr" r="G132">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Building/Construction</t>
         </is>
       </c>
       <c t="inlineStr" r="H132">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Contractor</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I132">
+        <is>
+          <t xml:space="preserve">Dan R Francisco</t>
         </is>
       </c>
       <c t="inlineStr" r="K132">
@@ -5984,19 +5974,19 @@
     </row>
     <row r="133">
       <c t="str" r="A133" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00296/Trusted-Name-in-Therapeutic-Massage","OR00296")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00295/Real-Chinese-Cuisine-in-busy-QC","OR00295")</f>
       </c>
       <c t="inlineStr" r="B133">
         <is>
-          <t xml:space="preserve">Trusted Name in Therapeutic Massage</t>
+          <t xml:space="preserve">Real Chinese Cuisine in busy QC</t>
         </is>
       </c>
       <c r="C133" s="63">
-        <v>4200000</v>
+        <v>6000000</v>
       </c>
       <c t="inlineStr" r="D133">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E133" s="65">
@@ -6007,17 +5997,12 @@
       </c>
       <c t="inlineStr" r="G133">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H133">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I133">
-        <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="K133">
@@ -6028,19 +6013,19 @@
     </row>
     <row r="134">
       <c t="str" r="A134" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00298/24-Year-Old-School-on-a-Large-Property","OR00298")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00296/Trusted-Name-in-Therapeutic-Massage","OR00296")</f>
       </c>
       <c t="inlineStr" r="B134">
         <is>
-          <t xml:space="preserve">24 Year Old School on a Large Property</t>
+          <t xml:space="preserve">Trusted Name in Therapeutic Massage</t>
         </is>
       </c>
       <c r="C134" s="63">
-        <v>100000000</v>
+        <v>4200000</v>
       </c>
       <c t="inlineStr" r="D134">
         <is>
-          <t xml:space="preserve">National Capital Region</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
       <c r="E134" s="65">
@@ -6051,12 +6036,17 @@
       </c>
       <c t="inlineStr" r="G134">
         <is>
-          <t xml:space="preserve">Education/Training</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H134">
         <is>
-          <t xml:space="preserve">School</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I134">
+        <is>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K134">
@@ -6067,40 +6057,35 @@
     </row>
     <row r="135">
       <c t="str" r="A135" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00308/Long-Established%2c-Successful-Catering-Business","OR00308")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00298/24-Year-Old-School-on-a-Large-Property","OR00298")</f>
       </c>
       <c t="inlineStr" r="B135">
         <is>
-          <t xml:space="preserve">Long Established, Successful Catering Business</t>
+          <t xml:space="preserve">24 Year Old School on a Large Property</t>
         </is>
       </c>
       <c r="C135" s="63">
-        <v>585000000</v>
+        <v>100000000</v>
       </c>
       <c t="inlineStr" r="D135">
         <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-      <c r="E135" s="63">
-        <v>270000000</v>
+          <t xml:space="preserve">National Capital Region</t>
+        </is>
+      </c>
+      <c r="E135" s="65">
+        <v>0</v>
       </c>
       <c r="F135" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G135">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Education/Training</t>
         </is>
       </c>
       <c t="inlineStr" r="H135">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I135">
-        <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">School</t>
         </is>
       </c>
       <c t="inlineStr" r="K135">
@@ -6111,23 +6096,23 @@
     </row>
     <row r="136">
       <c t="str" r="A136" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00314/Equipment-Only-for-Cafe-and-Bakeshop-Business","OR00314")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00308/Long-Established%2c-Successful-Catering-Business","OR00308")</f>
       </c>
       <c t="inlineStr" r="B136">
         <is>
-          <t xml:space="preserve">Equipment Only for Cafe and Bakeshop Business</t>
+          <t xml:space="preserve">Long Established, Successful Catering Business</t>
         </is>
       </c>
       <c r="C136" s="63">
-        <v>1649000</v>
+        <v>585000000</v>
       </c>
       <c t="inlineStr" r="D136">
         <is>
-          <t xml:space="preserve">Paranaque</t>
-        </is>
-      </c>
-      <c r="E136" s="65">
-        <v>0</v>
+          <t xml:space="preserve">-----</t>
+        </is>
+      </c>
+      <c r="E136" s="63">
+        <v>270000000</v>
       </c>
       <c r="F136" s="65">
         <v>0</v>
@@ -6139,7 +6124,7 @@
       </c>
       <c t="inlineStr" r="H136">
         <is>
-          <t xml:space="preserve">Bakery</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I136">
@@ -6149,25 +6134,25 @@
       </c>
       <c t="inlineStr" r="K136">
         <is>
-          <t xml:space="preserve">Rush Sale</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c t="str" r="A137" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00315/Flavourful-Italian-Restaurant-in-Commercial-Location","OR00315")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00314/Equipment-Only-for-Cafe-and-Bakeshop-Business","OR00314")</f>
       </c>
       <c t="inlineStr" r="B137">
         <is>
-          <t xml:space="preserve">Flavourful Italian Restaurant in Commercial Location</t>
+          <t xml:space="preserve">Equipment Only for Cafe and Bakeshop Business</t>
         </is>
       </c>
       <c r="C137" s="63">
-        <v>10000000</v>
+        <v>1649000</v>
       </c>
       <c t="inlineStr" r="D137">
         <is>
-          <t xml:space="preserve">Manila</t>
+          <t xml:space="preserve">Paranaque</t>
         </is>
       </c>
       <c r="E137" s="65">
@@ -6183,36 +6168,31 @@
       </c>
       <c t="inlineStr" r="H137">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Bakery</t>
         </is>
       </c>
       <c t="inlineStr" r="I137">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J137">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K137">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Rush Sale</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c t="str" r="A138" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00316/Italian-Food-Haven-in-Corporate-Manila","OR00316")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00315/Flavourful-Italian-Restaurant-in-Commercial-Location","OR00315")</f>
       </c>
       <c t="inlineStr" r="B138">
         <is>
-          <t xml:space="preserve">Italian Food Haven in Corporate Manila</t>
+          <t xml:space="preserve">Flavourful Italian Restaurant in Commercial Location</t>
         </is>
       </c>
       <c r="C138" s="63">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c t="inlineStr" r="D138">
         <is>
@@ -6253,19 +6233,19 @@
     </row>
     <row r="139">
       <c t="str" r="A139" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00317/Band-Plays-at-Resto-Bar-Near-Manila-Bay","OR00317")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00316/Italian-Food-Haven-in-Corporate-Manila","OR00316")</f>
       </c>
       <c t="inlineStr" r="B139">
         <is>
-          <t xml:space="preserve">Band Plays at Resto Bar Near Manila Bay</t>
+          <t xml:space="preserve">Italian Food Haven in Corporate Manila</t>
         </is>
       </c>
       <c r="C139" s="63">
-        <v>13000000</v>
+        <v>2000000</v>
       </c>
       <c t="inlineStr" r="D139">
         <is>
-          <t xml:space="preserve">Pasay City</t>
+          <t xml:space="preserve">Manila</t>
         </is>
       </c>
       <c r="E139" s="65">
@@ -6281,7 +6261,17 @@
       </c>
       <c t="inlineStr" r="H139">
         <is>
-          <t xml:space="preserve">Bars/Nightclubs</t>
+          <t xml:space="preserve">Restaurant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I139">
+        <is>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J139">
+        <is>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K139">
@@ -6292,19 +6282,19 @@
     </row>
     <row r="140">
       <c t="str" r="A140" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00319/Be-Part-of-a-Fashion-Bag-Brand-With-Global-Presence","OR00319")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00317/Band-Plays-at-Resto-Bar-Near-Manila-Bay","OR00317")</f>
       </c>
       <c t="inlineStr" r="B140">
         <is>
-          <t xml:space="preserve">Be Part of a Fashion Bag Brand With Global Presence</t>
+          <t xml:space="preserve">Band Plays at Resto Bar Near Manila Bay</t>
         </is>
       </c>
       <c r="C140" s="63">
-        <v>2500000</v>
+        <v>13000000</v>
       </c>
       <c t="inlineStr" r="D140">
         <is>
-          <t xml:space="preserve">Philippines</t>
+          <t xml:space="preserve">Pasay City</t>
         </is>
       </c>
       <c r="E140" s="65">
@@ -6315,45 +6305,35 @@
       </c>
       <c t="inlineStr" r="G140">
         <is>
-          <t xml:space="preserve">Retail General</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H140">
         <is>
-          <t xml:space="preserve">Clothing/Accessories</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I140">
-        <is>
-          <t xml:space="preserve">Maria Morris</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J140">
-        <is>
-          <t xml:space="preserve">Roberto Narciso</t>
+          <t xml:space="preserve">Bars/Nightclubs</t>
         </is>
       </c>
       <c t="inlineStr" r="K140">
         <is>
-          <t xml:space="preserve">*Repriced* (40% share)</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c t="str" r="A141" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00322/Tactically-Situated-Medical-Laboratory-%26-Diagnostic-Center-for-OFWs","OR00322")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00319/Be-Part-of-a-Fashion-Bag-Brand-With-Global-Presence","OR00319")</f>
       </c>
       <c t="inlineStr" r="B141">
         <is>
-          <t xml:space="preserve">Tactically Situated Medical Laboratory &amp; Diagnostic Center for OFWs</t>
+          <t xml:space="preserve">Be Part of a Fashion Bag Brand With Global Presence</t>
         </is>
       </c>
       <c r="C141" s="63">
-        <v>15900000</v>
+        <v>2500000</v>
       </c>
       <c t="inlineStr" r="D141">
         <is>
-          <t xml:space="preserve">Manila</t>
+          <t xml:space="preserve">Philippines</t>
         </is>
       </c>
       <c r="E141" s="65">
@@ -6364,40 +6344,45 @@
       </c>
       <c t="inlineStr" r="G141">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Retail General</t>
         </is>
       </c>
       <c t="inlineStr" r="H141">
         <is>
-          <t xml:space="preserve">Medical</t>
+          <t xml:space="preserve">Clothing/Accessories</t>
         </is>
       </c>
       <c t="inlineStr" r="I141">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
+          <t xml:space="preserve">Maria Morris</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J141">
+        <is>
+          <t xml:space="preserve">Roberto Narciso</t>
         </is>
       </c>
       <c t="inlineStr" r="K141">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">*Repriced* (40% share)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c t="str" r="A142" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00323/Premier-Skin-Care-Brand-in-an-Upscale-Location","OR00323")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00322/Tactically-Situated-Medical-Laboratory-%26-Diagnostic-Center-for-OFWs","OR00322")</f>
       </c>
       <c t="inlineStr" r="B142">
         <is>
-          <t xml:space="preserve">Premier Skin Care Brand in an Upscale Location</t>
+          <t xml:space="preserve">Tactically Situated Medical Laboratory &amp; Diagnostic Center for OFWs</t>
         </is>
       </c>
       <c r="C142" s="63">
-        <v>7500000</v>
+        <v>15900000</v>
       </c>
       <c t="inlineStr" r="D142">
         <is>
-          <t xml:space="preserve">Taguig</t>
+          <t xml:space="preserve">Manila</t>
         </is>
       </c>
       <c r="E142" s="65">
@@ -6418,30 +6403,30 @@
       </c>
       <c t="inlineStr" r="I142">
         <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Dan R Francisco</t>
         </is>
       </c>
       <c t="inlineStr" r="K142">
         <is>
-          <t xml:space="preserve">for 60% plus security deposits, bonds and any applicable taxes</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c t="str" r="A143" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00324/Two-Salons-for-the-Price-of-One!","OR00324")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00323/Premier-Skin-Care-Brand-in-an-Upscale-Location","OR00323")</f>
       </c>
       <c t="inlineStr" r="B143">
         <is>
-          <t xml:space="preserve">Two Salons for the Price of One!</t>
+          <t xml:space="preserve">Premier Skin Care Brand in an Upscale Location</t>
         </is>
       </c>
       <c r="C143" s="63">
-        <v>800000</v>
+        <v>7500000</v>
       </c>
       <c t="inlineStr" r="D143">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Taguig</t>
         </is>
       </c>
       <c r="E143" s="65">
@@ -6457,110 +6442,105 @@
       </c>
       <c t="inlineStr" r="H143">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Medical</t>
         </is>
       </c>
       <c t="inlineStr" r="I143">
         <is>
-          <t xml:space="preserve">Efren Pascual</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J143">
-        <is>
-          <t xml:space="preserve">Roberto Narciso</t>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K143">
         <is>
-          <t xml:space="preserve">*Repriced*</t>
+          <t xml:space="preserve">for 60% plus security deposits, bonds and any applicable taxes</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c t="str" r="A144" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00326/A-Thriving-Boardgame-Caf%c3%a9-Adjacent-To-a-Prominent-University","OR00326")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00324/Two-Salons-for-the-Price-of-One!","OR00324")</f>
       </c>
       <c t="inlineStr" r="B144">
         <is>
-          <t xml:space="preserve">A Thriving Boardgame Café Adjacent To a Prominent University</t>
+          <t xml:space="preserve">Two Salons for the Price of One!</t>
         </is>
       </c>
       <c r="C144" s="63">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c t="inlineStr" r="D144">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
-        </is>
-      </c>
-      <c r="E144" s="63">
-        <v>3652588</v>
+          <t xml:space="preserve">Quezon City</t>
+        </is>
+      </c>
+      <c r="E144" s="65">
+        <v>0</v>
       </c>
       <c r="F144" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G144">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H144">
         <is>
-          <t xml:space="preserve">Coffee Shop</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I144">
         <is>
-          <t xml:space="preserve">Benjie Tabayag</t>
+          <t xml:space="preserve">Efren Pascual</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J144">
+        <is>
+          <t xml:space="preserve">Roberto Narciso</t>
         </is>
       </c>
       <c t="inlineStr" r="K144">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">*Repriced*</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c t="str" r="A145" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00327/Retail-Supplier-of-Handkerchiefs-and-Ties","OR00327")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00326/A-Thriving-Boardgame-Caf%c3%a9-Adjacent-To-a-Prominent-University","OR00326")</f>
       </c>
       <c t="inlineStr" r="B145">
         <is>
-          <t xml:space="preserve">Retail Supplier of Handkerchiefs and Ties</t>
+          <t xml:space="preserve">A Thriving Boardgame Café Adjacent To a Prominent University</t>
         </is>
       </c>
       <c r="C145" s="63">
-        <v>24000000</v>
+        <v>1600000</v>
       </c>
       <c t="inlineStr" r="D145">
         <is>
           <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
-      <c r="E145" s="65">
-        <v>0</v>
+      <c r="E145" s="63">
+        <v>3652588</v>
       </c>
       <c r="F145" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G145">
         <is>
-          <t xml:space="preserve">Retail General</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H145">
         <is>
-          <t xml:space="preserve">Clothing/Accessories</t>
+          <t xml:space="preserve">Coffee Shop</t>
         </is>
       </c>
       <c t="inlineStr" r="I145">
         <is>
-          <t xml:space="preserve">Joji Upano</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J145">
-        <is>
-          <t xml:space="preserve">Augusto Soliman</t>
+          <t xml:space="preserve">Benjie Tabayag</t>
         </is>
       </c>
       <c t="inlineStr" r="K145">
@@ -6571,19 +6551,19 @@
     </row>
     <row r="146">
       <c t="str" r="A146" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00329/Chain-of-Samgyupsal-Restos-with-Promising-ROI","OR00329")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00327/Retail-Supplier-of-Handkerchiefs-and-Ties","OR00327")</f>
       </c>
       <c t="inlineStr" r="B146">
         <is>
-          <t xml:space="preserve">Chain of Samgyupsal Restos with Promising ROI</t>
+          <t xml:space="preserve">Retail Supplier of Handkerchiefs and Ties</t>
         </is>
       </c>
       <c r="C146" s="63">
-        <v>3000000</v>
+        <v>24000000</v>
       </c>
       <c t="inlineStr" r="D146">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E146" s="65">
@@ -6594,17 +6574,22 @@
       </c>
       <c t="inlineStr" r="G146">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Retail General</t>
         </is>
       </c>
       <c t="inlineStr" r="H146">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Clothing/Accessories</t>
         </is>
       </c>
       <c t="inlineStr" r="I146">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Joji Upano</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J146">
+        <is>
+          <t xml:space="preserve">Augusto Soliman</t>
         </is>
       </c>
       <c t="inlineStr" r="K146">
@@ -6615,19 +6600,19 @@
     </row>
     <row r="147">
       <c t="str" r="A147" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00330/Reputable-Power-System-Design-Company","OR00330")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00329/Chain-of-Samgyupsal-Restos-with-Promising-ROI","OR00329")</f>
       </c>
       <c t="inlineStr" r="B147">
         <is>
-          <t xml:space="preserve">Reputable Power System Design Company</t>
+          <t xml:space="preserve">Chain of Samgyupsal Restos with Promising ROI</t>
         </is>
       </c>
       <c r="C147" s="63">
-        <v>18000000</v>
+        <v>3000000</v>
       </c>
       <c t="inlineStr" r="D147">
         <is>
-          <t xml:space="preserve">Central Luzon</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E147" s="65">
@@ -6638,17 +6623,17 @@
       </c>
       <c t="inlineStr" r="G147">
         <is>
-          <t xml:space="preserve">Retail General</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H147">
         <is>
-          <t xml:space="preserve">Homeware/Hardware</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="I147">
         <is>
-          <t xml:space="preserve">Jard Gerona</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K147">
@@ -6659,35 +6644,35 @@
     </row>
     <row r="148">
       <c t="str" r="A148" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00331/Local-Food-Franchise-South-of-Manila","OR00331")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00330/Reputable-Power-System-Design-Company","OR00330")</f>
       </c>
       <c t="inlineStr" r="B148">
         <is>
-          <t xml:space="preserve">Local Food Franchise South of Manila</t>
+          <t xml:space="preserve">Reputable Power System Design Company</t>
         </is>
       </c>
       <c r="C148" s="63">
-        <v>2200000</v>
+        <v>18000000</v>
       </c>
       <c t="inlineStr" r="D148">
         <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-      <c r="E148" s="63">
-        <v>4216981</v>
+          <t xml:space="preserve">Central Luzon</t>
+        </is>
+      </c>
+      <c r="E148" s="65">
+        <v>0</v>
       </c>
       <c r="F148" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G148">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Retail General</t>
         </is>
       </c>
       <c t="inlineStr" r="H148">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Homeware/Hardware</t>
         </is>
       </c>
       <c t="inlineStr" r="I148">
@@ -6703,40 +6688,40 @@
     </row>
     <row r="149">
       <c t="str" r="A149" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00332/Premium-Montessori-School-In-High-Growth-Location","OR00332")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00331/Local-Food-Franchise-South-of-Manila","OR00331")</f>
       </c>
       <c t="inlineStr" r="B149">
         <is>
-          <t xml:space="preserve">Premium Montessori School In High Growth Location</t>
+          <t xml:space="preserve">Local Food Franchise South of Manila</t>
         </is>
       </c>
       <c r="C149" s="63">
-        <v>25000000</v>
+        <v>2200000</v>
       </c>
       <c t="inlineStr" r="D149">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
-        </is>
-      </c>
-      <c r="E149" s="65">
-        <v>0</v>
+          <t xml:space="preserve">-----</t>
+        </is>
+      </c>
+      <c r="E149" s="63">
+        <v>4216981</v>
       </c>
       <c r="F149" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G149">
         <is>
-          <t xml:space="preserve">Education/Training</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H149">
         <is>
-          <t xml:space="preserve">School</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I149">
         <is>
-          <t xml:space="preserve">Joji Upano</t>
+          <t xml:space="preserve">Jard Gerona</t>
         </is>
       </c>
       <c t="inlineStr" r="K149">
@@ -6747,19 +6732,19 @@
     </row>
     <row r="150">
       <c t="str" r="A150" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00334/Setup-Anywhere-Take-Out-Lechon-With-Gourmet-Recipes","OR00334")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00332/Premium-Montessori-School-In-High-Growth-Location","OR00332")</f>
       </c>
       <c t="inlineStr" r="B150">
         <is>
-          <t xml:space="preserve">Setup Anywhere Take Out Lechon With Gourmet Recipes</t>
+          <t xml:space="preserve">Premium Montessori School In High Growth Location</t>
         </is>
       </c>
       <c r="C150" s="63">
-        <v>3000000</v>
+        <v>25000000</v>
       </c>
       <c t="inlineStr" r="D150">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E150" s="65">
@@ -6770,12 +6755,12 @@
       </c>
       <c t="inlineStr" r="G150">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Education/Training</t>
         </is>
       </c>
       <c t="inlineStr" r="H150">
         <is>
-          <t xml:space="preserve">Retailer</t>
+          <t xml:space="preserve">School</t>
         </is>
       </c>
       <c t="inlineStr" r="I150">
@@ -6791,15 +6776,15 @@
     </row>
     <row r="151">
       <c t="str" r="A151" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00336/Modern-Resto-Bar-in-Quezon-City","OR00336")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00334/Setup-Anywhere-Take-Out-Lechon-With-Gourmet-Recipes","OR00334")</f>
       </c>
       <c t="inlineStr" r="B151">
         <is>
-          <t xml:space="preserve">Modern Resto Bar in Quezon City</t>
+          <t xml:space="preserve">Setup Anywhere Take Out Lechon With Gourmet Recipes</t>
         </is>
       </c>
       <c r="C151" s="63">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c t="inlineStr" r="D151">
         <is>
@@ -6809,8 +6794,8 @@
       <c r="E151" s="65">
         <v>0</v>
       </c>
-      <c r="F151" s="63">
-        <v>2400000</v>
+      <c r="F151" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G151">
         <is>
@@ -6819,12 +6804,12 @@
       </c>
       <c t="inlineStr" r="H151">
         <is>
-          <t xml:space="preserve">Bars/Nightclubs</t>
+          <t xml:space="preserve">Retailer</t>
         </is>
       </c>
       <c t="inlineStr" r="I151">
         <is>
-          <t xml:space="preserve">Raffy Salaveria</t>
+          <t xml:space="preserve">Joji Upano</t>
         </is>
       </c>
       <c t="inlineStr" r="K151">
@@ -6835,40 +6820,40 @@
     </row>
     <row r="152">
       <c t="str" r="A152" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00337/Beautiful-Gem-in-the-Skincare-Industry","OR00337")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00336/Modern-Resto-Bar-in-Quezon-City","OR00336")</f>
       </c>
       <c t="inlineStr" r="B152">
         <is>
-          <t xml:space="preserve">Beautiful Gem in the Skincare Industry</t>
+          <t xml:space="preserve">Modern Resto Bar in Quezon City</t>
         </is>
       </c>
       <c r="C152" s="63">
-        <v>10000000</v>
+        <v>4000000</v>
       </c>
       <c t="inlineStr" r="D152">
         <is>
           <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
-      <c r="E152" s="63">
-        <v>4200000</v>
-      </c>
-      <c r="F152" s="65">
-        <v>0</v>
+      <c r="E152" s="65">
+        <v>0</v>
+      </c>
+      <c r="F152" s="63">
+        <v>2400000</v>
       </c>
       <c t="inlineStr" r="G152">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H152">
         <is>
-          <t xml:space="preserve">Beauty Products</t>
+          <t xml:space="preserve">Bars/Nightclubs</t>
         </is>
       </c>
       <c t="inlineStr" r="I152">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Raffy Salaveria</t>
         </is>
       </c>
       <c t="inlineStr" r="K152">
@@ -6879,40 +6864,40 @@
     </row>
     <row r="153">
       <c t="str" r="A153" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00338/Pioneering-Distributor-of-Modern-Technology-and-Electronics-Products","OR00338")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00337/Beautiful-Gem-in-the-Skincare-Industry","OR00337")</f>
       </c>
       <c t="inlineStr" r="B153">
         <is>
-          <t xml:space="preserve">Pioneering Distributor of Modern Technology and Electronics Products</t>
+          <t xml:space="preserve">Beautiful Gem in the Skincare Industry</t>
         </is>
       </c>
       <c r="C153" s="63">
-        <v>25000000</v>
+        <v>10000000</v>
       </c>
       <c t="inlineStr" r="D153">
         <is>
-          <t xml:space="preserve">National Capital Region</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E153" s="63">
-        <v>75299042</v>
+        <v>4200000</v>
       </c>
       <c r="F153" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G153">
         <is>
-          <t xml:space="preserve">Transport/Distribution</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H153">
         <is>
-          <t xml:space="preserve">General</t>
+          <t xml:space="preserve">Beauty Products</t>
         </is>
       </c>
       <c t="inlineStr" r="I153">
         <is>
-          <t xml:space="preserve">Benjie Tabayag</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K153">
@@ -6923,63 +6908,63 @@
     </row>
     <row r="154">
       <c t="str" r="A154" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00340/LOCATION!-LOCATION!-LOCATION!","OR00340")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00338/Pioneering-Distributor-of-Modern-Technology-and-Electronics-Products","OR00338")</f>
       </c>
       <c t="inlineStr" r="B154">
         <is>
-          <t xml:space="preserve">LOCATION! LOCATION! LOCATION!</t>
+          <t xml:space="preserve">Pioneering Distributor of Modern Technology and Electronics Products</t>
         </is>
       </c>
       <c r="C154" s="63">
-        <v>2500000100</v>
+        <v>25000000</v>
       </c>
       <c t="inlineStr" r="D154">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
-        </is>
-      </c>
-      <c r="E154" s="65">
-        <v>0</v>
+          <t xml:space="preserve">National Capital Region</t>
+        </is>
+      </c>
+      <c r="E154" s="63">
+        <v>75299042</v>
       </c>
       <c r="F154" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G154">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Transport/Distribution</t>
         </is>
       </c>
       <c t="inlineStr" r="H154">
         <is>
-          <t xml:space="preserve">Fast Food</t>
+          <t xml:space="preserve">General</t>
         </is>
       </c>
       <c t="inlineStr" r="I154">
         <is>
-          <t xml:space="preserve">Maria Morris</t>
+          <t xml:space="preserve">Benjie Tabayag</t>
         </is>
       </c>
       <c t="inlineStr" r="K154">
         <is>
-          <t xml:space="preserve">100% of the shares</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c t="str" r="A155" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00341/Cash-Cow-Restaurant-Business-Likely-Payback-in-2-to-3-Years","OR00341")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00340/LOCATION!-LOCATION!-LOCATION!","OR00340")</f>
       </c>
       <c t="inlineStr" r="B155">
         <is>
-          <t xml:space="preserve">Cash Cow Restaurant Business Likely Payback in 2 to 3 Years</t>
+          <t xml:space="preserve">LOCATION! LOCATION! LOCATION!</t>
         </is>
       </c>
       <c r="C155" s="63">
-        <v>49000000</v>
+        <v>2500000100</v>
       </c>
       <c t="inlineStr" r="D155">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E155" s="65">
@@ -6995,61 +6980,61 @@
       </c>
       <c t="inlineStr" r="H155">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Fast Food</t>
         </is>
       </c>
       <c t="inlineStr" r="I155">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J155">
-        <is>
-          <t xml:space="preserve">Mario Bate</t>
+          <t xml:space="preserve">Maria Morris</t>
         </is>
       </c>
       <c t="inlineStr" r="K155">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">100% of the shares</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c t="str" r="A156" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00344/A-Rewarding-Travel-Agency-You-Can-Own!","OR00344")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00341/Cash-Cow-Restaurant-Business-Likely-Payback-in-2-to-3-Years","OR00341")</f>
       </c>
       <c t="inlineStr" r="B156">
         <is>
-          <t xml:space="preserve">A Rewarding Travel Agency You Can Own!</t>
+          <t xml:space="preserve">Cash Cow Restaurant Business Likely Payback in 2 to 3 Years</t>
         </is>
       </c>
       <c r="C156" s="63">
-        <v>5000000</v>
+        <v>49000000</v>
       </c>
       <c t="inlineStr" r="D156">
         <is>
-          <t xml:space="preserve">Taguig</t>
-        </is>
-      </c>
-      <c r="E156" s="63">
-        <v>20955680</v>
-      </c>
-      <c r="F156" s="63">
-        <v>2800000</v>
+          <t xml:space="preserve">-----</t>
+        </is>
+      </c>
+      <c r="E156" s="65">
+        <v>0</v>
+      </c>
+      <c r="F156" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G156">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H156">
         <is>
-          <t xml:space="preserve">Travel</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I156">
         <is>
-          <t xml:space="preserve">Benjie Tabayag</t>
+          <t xml:space="preserve">Princess Moratin</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J156">
+        <is>
+          <t xml:space="preserve">Mario Bate</t>
         </is>
       </c>
       <c t="inlineStr" r="K156">
@@ -7060,35 +7045,35 @@
     </row>
     <row r="157">
       <c t="str" r="A157" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00345/Own-This-Rapidly-Growing-Virtual-Reality-Business!","OR00345")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00344/A-Rewarding-Travel-Agency-You-Can-Own!","OR00344")</f>
       </c>
       <c t="inlineStr" r="B157">
         <is>
-          <t xml:space="preserve">Own This Rapidly Growing Virtual Reality Business!</t>
+          <t xml:space="preserve">A Rewarding Travel Agency You Can Own!</t>
         </is>
       </c>
       <c r="C157" s="63">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c t="inlineStr" r="D157">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
-        </is>
-      </c>
-      <c r="E157" s="65">
-        <v>0</v>
-      </c>
-      <c r="F157" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Taguig</t>
+        </is>
+      </c>
+      <c r="E157" s="63">
+        <v>20955680</v>
+      </c>
+      <c r="F157" s="63">
+        <v>2800000</v>
       </c>
       <c t="inlineStr" r="G157">
         <is>
-          <t xml:space="preserve">Technology/Computer/IT</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H157">
         <is>
-          <t xml:space="preserve">Video Game</t>
+          <t xml:space="preserve">Travel</t>
         </is>
       </c>
       <c t="inlineStr" r="I157">
@@ -7104,19 +7089,19 @@
     </row>
     <row r="158">
       <c t="str" r="A158" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00346/2020-Potential-Profit-at-%e2%82%b117M%2c-currently-%e2%82%b19M","OR00346")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00345/Own-This-Rapidly-Growing-Virtual-Reality-Business!","OR00345")</f>
       </c>
       <c t="inlineStr" r="B158">
         <is>
-          <t xml:space="preserve">2020 Potential Profit at ₱17M, currently ₱9M</t>
+          <t xml:space="preserve">Own This Rapidly Growing Virtual Reality Business!</t>
         </is>
       </c>
       <c r="C158" s="63">
-        <v>30000000</v>
+        <v>15000000</v>
       </c>
       <c t="inlineStr" r="D158">
         <is>
-          <t xml:space="preserve">Pasig</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E158" s="65">
@@ -7127,22 +7112,17 @@
       </c>
       <c t="inlineStr" r="G158">
         <is>
-          <t xml:space="preserve">Franchise</t>
+          <t xml:space="preserve">Technology/Computer/IT</t>
         </is>
       </c>
       <c t="inlineStr" r="H158">
         <is>
-          <t xml:space="preserve">Food</t>
+          <t xml:space="preserve">Video Game</t>
         </is>
       </c>
       <c t="inlineStr" r="I158">
         <is>
-          <t xml:space="preserve">Joji Upano</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J158">
-        <is>
-          <t xml:space="preserve">Augusto Soliman</t>
+          <t xml:space="preserve">Benjie Tabayag</t>
         </is>
       </c>
       <c t="inlineStr" r="K158">
@@ -7153,19 +7133,19 @@
     </row>
     <row r="159">
       <c t="str" r="A159" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00347/Century-old-European-Caf%c3%a9-franchise","OR00347")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00346/2020-Potential-Profit-at-%e2%82%b117M%2c-currently-%e2%82%b19M","OR00346")</f>
       </c>
       <c t="inlineStr" r="B159">
         <is>
-          <t xml:space="preserve">Century old European Café franchise</t>
+          <t xml:space="preserve">2020 Potential Profit at ₱17M, currently ₱9M</t>
         </is>
       </c>
       <c r="C159" s="63">
-        <v>15000000</v>
+        <v>30000000</v>
       </c>
       <c t="inlineStr" r="D159">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Pasig</t>
         </is>
       </c>
       <c r="E159" s="65">
@@ -7176,12 +7156,22 @@
       </c>
       <c t="inlineStr" r="G159">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Franchise</t>
         </is>
       </c>
       <c t="inlineStr" r="H159">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Food</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I159">
+        <is>
+          <t xml:space="preserve">Joji Upano</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J159">
+        <is>
+          <t xml:space="preserve">Augusto Soliman</t>
         </is>
       </c>
       <c t="inlineStr" r="K159">
@@ -7192,35 +7182,35 @@
     </row>
     <row r="160">
       <c t="str" r="A160" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00349/A-Simple-Business-to-Own-with-25%2b-Years-of-History","OR00349")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00347/Century-old-European-Caf%c3%a9-franchise","OR00347")</f>
       </c>
       <c t="inlineStr" r="B160">
         <is>
-          <t xml:space="preserve">A Simple Business to Own with 25+ Years of History</t>
+          <t xml:space="preserve">Century old European Café franchise</t>
         </is>
       </c>
       <c r="C160" s="63">
-        <v>4500000</v>
+        <v>15000000</v>
       </c>
       <c t="inlineStr" r="D160">
         <is>
-          <t xml:space="preserve">National Capital Region</t>
-        </is>
-      </c>
-      <c r="E160" s="63">
-        <v>45000000</v>
+          <t xml:space="preserve">-----</t>
+        </is>
+      </c>
+      <c r="E160" s="65">
+        <v>0</v>
       </c>
       <c r="F160" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G160">
         <is>
-          <t xml:space="preserve">Retail General</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H160">
         <is>
-          <t xml:space="preserve">General Merchandise</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="K160">
@@ -7231,35 +7221,35 @@
     </row>
     <row r="161">
       <c t="str" r="A161" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00350/2-in-1-Business-in-a-Bustling-Location","OR00350")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00349/A-Simple-Business-to-Own-with-25%2b-Years-of-History","OR00349")</f>
       </c>
       <c t="inlineStr" r="B161">
         <is>
-          <t xml:space="preserve">2 in 1 Business in a Bustling Location</t>
+          <t xml:space="preserve">A Simple Business to Own with 25+ Years of History</t>
         </is>
       </c>
       <c r="C161" s="63">
-        <v>2700000</v>
+        <v>4500000</v>
       </c>
       <c t="inlineStr" r="D161">
         <is>
-          <t xml:space="preserve">Pasig</t>
-        </is>
-      </c>
-      <c r="E161" s="65">
-        <v>0</v>
+          <t xml:space="preserve">National Capital Region</t>
+        </is>
+      </c>
+      <c r="E161" s="63">
+        <v>45000000</v>
       </c>
       <c r="F161" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G161">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Retail General</t>
         </is>
       </c>
       <c t="inlineStr" r="H161">
         <is>
-          <t xml:space="preserve">Convenience Store</t>
+          <t xml:space="preserve">General Merchandise</t>
         </is>
       </c>
       <c t="inlineStr" r="K161">
@@ -7270,19 +7260,19 @@
     </row>
     <row r="162">
       <c t="str" r="A162" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00351/Profitable-Sportswear-Manufacturer-with-Solid-Track-Record","OR00351")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00350/2-in-1-Business-in-a-Bustling-Location","OR00350")</f>
       </c>
       <c t="inlineStr" r="B162">
         <is>
-          <t xml:space="preserve">Profitable Sportswear Manufacturer with Solid Track Record</t>
+          <t xml:space="preserve">2 in 1 Business in a Bustling Location</t>
         </is>
       </c>
       <c r="C162" s="63">
-        <v>8500000</v>
+        <v>2700000</v>
       </c>
       <c t="inlineStr" r="D162">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Pasig</t>
         </is>
       </c>
       <c r="E162" s="65">
@@ -7293,17 +7283,12 @@
       </c>
       <c t="inlineStr" r="G162">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H162">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I162">
-        <is>
-          <t xml:space="preserve">Mario Bate</t>
+          <t xml:space="preserve">Convenience Store</t>
         </is>
       </c>
       <c t="inlineStr" r="K162">
@@ -7314,40 +7299,40 @@
     </row>
     <row r="163">
       <c t="str" r="A163" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00353/Rush-Sale!!!-Own-this-Cafe-Restaurant-in-Ayala-Mall-Makati!","OR00353")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00351/Profitable-Sportswear-Manufacturer-with-Solid-Track-Record","OR00351")</f>
       </c>
       <c t="inlineStr" r="B163">
         <is>
-          <t xml:space="preserve">Rush Sale!!! Own this Cafe Restaurant in Ayala Mall Makati!</t>
+          <t xml:space="preserve">Profitable Sportswear Manufacturer with Solid Track Record</t>
         </is>
       </c>
       <c r="C163" s="63">
-        <v>2800000</v>
+        <v>8500000</v>
       </c>
       <c t="inlineStr" r="D163">
         <is>
-          <t xml:space="preserve">Makati</t>
-        </is>
-      </c>
-      <c r="E163" s="63">
-        <v>2453283</v>
+          <t xml:space="preserve">-----</t>
+        </is>
+      </c>
+      <c r="E163" s="65">
+        <v>0</v>
       </c>
       <c r="F163" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G163">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="H163">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I163">
         <is>
-          <t xml:space="preserve">Benjie Tabayag</t>
+          <t xml:space="preserve">Mario Bate</t>
         </is>
       </c>
       <c t="inlineStr" r="K163">
@@ -7358,23 +7343,23 @@
     </row>
     <row r="164">
       <c t="str" r="A164" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00354/Ready-to-Play-with-this-Gaming-Restobar","OR00354")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00353/Rush-Sale!!!-Own-this-Cafe-Restaurant-in-Ayala-Mall-Makati!","OR00353")</f>
       </c>
       <c t="inlineStr" r="B164">
         <is>
-          <t xml:space="preserve">Ready to Play with this Gaming Restobar?</t>
+          <t xml:space="preserve">Rush Sale!!! Own this Cafe Restaurant in Ayala Mall Makati!</t>
         </is>
       </c>
       <c r="C164" s="63">
-        <v>3500000</v>
+        <v>2800000</v>
       </c>
       <c t="inlineStr" r="D164">
         <is>
-          <t xml:space="preserve">Muntinlupa</t>
-        </is>
-      </c>
-      <c r="E164" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Makati</t>
+        </is>
+      </c>
+      <c r="E164" s="63">
+        <v>2453283</v>
       </c>
       <c r="F164" s="65">
         <v>0</v>
@@ -7391,7 +7376,7 @@
       </c>
       <c t="inlineStr" r="I164">
         <is>
-          <t xml:space="preserve">Raffy Salaveria</t>
+          <t xml:space="preserve">Benjie Tabayag</t>
         </is>
       </c>
       <c t="inlineStr" r="K164">
@@ -7402,19 +7387,19 @@
     </row>
     <row r="165">
       <c t="str" r="A165" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00356/Personal-Protective-Equipment-With-Exclusive-Distribution-Rights","OR00356")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00354/Ready-to-Play-with-this-Gaming-Restobar","OR00354")</f>
       </c>
       <c t="inlineStr" r="B165">
         <is>
-          <t xml:space="preserve">Personal Protective Equipment With Exclusive Distribution Rights</t>
+          <t xml:space="preserve">Ready to Play with this Gaming Restobar?</t>
         </is>
       </c>
       <c r="C165" s="63">
-        <v>65000000</v>
+        <v>3500000</v>
       </c>
       <c t="inlineStr" r="D165">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Muntinlupa</t>
         </is>
       </c>
       <c r="E165" s="65">
@@ -7425,36 +7410,36 @@
       </c>
       <c t="inlineStr" r="G165">
         <is>
-          <t xml:space="preserve">Building/Construction</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H165">
         <is>
-          <t xml:space="preserve">Supplies</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="I165">
         <is>
-          <t xml:space="preserve">Joji Upano</t>
+          <t xml:space="preserve">Raffy Salaveria</t>
         </is>
       </c>
       <c t="inlineStr" r="K165">
         <is>
-          <t xml:space="preserve">includes approx. ₱15 M inventory</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c t="str" r="A166" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00357/Cash-from-Transport-Fleet%2c-Straight-to-the-Bank!","OR00357")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00356/Personal-Protective-Equipment-With-Exclusive-Distribution-Rights","OR00356")</f>
       </c>
       <c t="inlineStr" r="B166">
         <is>
-          <t xml:space="preserve">Cash from Transport Fleet, Straight to the Bank!</t>
+          <t xml:space="preserve">Personal Protective Equipment With Exclusive Distribution Rights</t>
         </is>
       </c>
       <c r="C166" s="63">
-        <v>59000000</v>
+        <v>65000000</v>
       </c>
       <c t="inlineStr" r="D166">
         <is>
@@ -7469,66 +7454,66 @@
       </c>
       <c t="inlineStr" r="G166">
         <is>
-          <t xml:space="preserve">Transport/Distribution</t>
+          <t xml:space="preserve">Building/Construction</t>
         </is>
       </c>
       <c t="inlineStr" r="H166">
         <is>
-          <t xml:space="preserve">Taxi</t>
+          <t xml:space="preserve">Supplies</t>
         </is>
       </c>
       <c t="inlineStr" r="I166">
         <is>
-          <t xml:space="preserve">Alvin de Borja</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J166">
-        <is>
           <t xml:space="preserve">Joji Upano</t>
         </is>
       </c>
       <c t="inlineStr" r="K166">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">includes approx. ₱15 M inventory</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c t="str" r="A167" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00358/20%2b-Years-in-the-Glassworks-Industry","OR00358")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00357/Cash-from-Transport-Fleet%2c-Straight-to-the-Bank!","OR00357")</f>
       </c>
       <c t="inlineStr" r="B167">
         <is>
-          <t xml:space="preserve">20+ Years in the Glassworks Industry</t>
+          <t xml:space="preserve">Cash from Transport Fleet, Straight to the Bank!</t>
         </is>
       </c>
       <c r="C167" s="63">
-        <v>8000000</v>
+        <v>59000000</v>
       </c>
       <c t="inlineStr" r="D167">
         <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-      <c r="E167" s="63">
-        <v>10425043</v>
+          <t xml:space="preserve">Metro Manila</t>
+        </is>
+      </c>
+      <c r="E167" s="65">
+        <v>0</v>
       </c>
       <c r="F167" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G167">
         <is>
-          <t xml:space="preserve">Industrial Manufacturing</t>
+          <t xml:space="preserve">Transport/Distribution</t>
         </is>
       </c>
       <c t="inlineStr" r="H167">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Taxi</t>
         </is>
       </c>
       <c t="inlineStr" r="I167">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Alvin de Borja</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J167">
+        <is>
+          <t xml:space="preserve">Joji Upano</t>
         </is>
       </c>
       <c t="inlineStr" r="K167">
@@ -7539,40 +7524,40 @@
     </row>
     <row r="168">
       <c t="str" r="A168" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00359/Strong-and-Stable-Water-Delivery-and-Refilling-Station","OR00359")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00358/20%2b-Years-in-the-Glassworks-Industry","OR00358")</f>
       </c>
       <c t="inlineStr" r="B168">
         <is>
-          <t xml:space="preserve">Strong and Stable Water Delivery and Refilling Station</t>
+          <t xml:space="preserve">20+ Years in the Glassworks Industry</t>
         </is>
       </c>
       <c r="C168" s="63">
-        <v>3600000</v>
+        <v>8000000</v>
       </c>
       <c t="inlineStr" r="D168">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
       <c r="E168" s="63">
-        <v>4200000</v>
-      </c>
-      <c r="F168" s="63">
-        <v>1800000</v>
+        <v>10425043</v>
+      </c>
+      <c r="F168" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G168">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Industrial Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H168">
         <is>
-          <t xml:space="preserve">Wholesale &amp; Distribution</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I168">
         <is>
-          <t xml:space="preserve">Mario Bate</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K168">
@@ -7583,26 +7568,26 @@
     </row>
     <row r="169">
       <c t="str" r="A169" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00360/Profitable-Milk-Tea-Franchise-in-BGC-%e2%80%93-2-Kiosks","OR00360")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00359/Strong-and-Stable-Water-Delivery-and-Refilling-Station","OR00359")</f>
       </c>
       <c t="inlineStr" r="B169">
         <is>
-          <t xml:space="preserve">Profitable Milk Tea Franchise in BGC – 2 Kiosks</t>
+          <t xml:space="preserve">Strong and Stable Water Delivery and Refilling Station</t>
         </is>
       </c>
       <c r="C169" s="63">
-        <v>2000000</v>
+        <v>3600000</v>
       </c>
       <c t="inlineStr" r="D169">
         <is>
-          <t xml:space="preserve">Taguig</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E169" s="63">
-        <v>3123022</v>
+        <v>4200000</v>
       </c>
       <c r="F169" s="63">
-        <v>1078838</v>
+        <v>1800000</v>
       </c>
       <c t="inlineStr" r="G169">
         <is>
@@ -7611,12 +7596,12 @@
       </c>
       <c t="inlineStr" r="H169">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Wholesale &amp; Distribution</t>
         </is>
       </c>
       <c t="inlineStr" r="I169">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Mario Bate</t>
         </is>
       </c>
       <c t="inlineStr" r="K169">
@@ -7627,40 +7612,40 @@
     </row>
     <row r="170">
       <c t="str" r="A170" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00361/Experienced-in-the-Package-Manufacturing-Industry","OR00361")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00360/Profitable-Milk-Tea-Franchise-in-BGC-%e2%80%93-2-Kiosks","OR00360")</f>
       </c>
       <c t="inlineStr" r="B170">
         <is>
-          <t xml:space="preserve">Experienced in the Package Manufacturing Industry</t>
+          <t xml:space="preserve">Profitable Milk Tea Franchise in BGC – 2 Kiosks</t>
         </is>
       </c>
       <c r="C170" s="63">
-        <v>3500000</v>
+        <v>2000000</v>
       </c>
       <c t="inlineStr" r="D170">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
-        </is>
-      </c>
-      <c r="E170" s="65">
-        <v>0</v>
-      </c>
-      <c r="F170" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Taguig</t>
+        </is>
+      </c>
+      <c r="E170" s="63">
+        <v>3123022</v>
+      </c>
+      <c r="F170" s="63">
+        <v>1078838</v>
       </c>
       <c t="inlineStr" r="G170">
         <is>
-          <t xml:space="preserve">Industrial Manufacturing</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H170">
         <is>
-          <t xml:space="preserve">Paper/Printing</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I170">
         <is>
-          <t xml:space="preserve">Poncho Claudio</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K170">
@@ -7671,45 +7656,40 @@
     </row>
     <row r="171">
       <c t="str" r="A171" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00362/Resort-Themed-Spa-in-the-Heart-of-the-City","OR00362")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00361/Experienced-in-the-Package-Manufacturing-Industry","OR00361")</f>
       </c>
       <c t="inlineStr" r="B171">
         <is>
-          <t xml:space="preserve">Resort Themed Spa in the Heart of the City</t>
+          <t xml:space="preserve">Experienced in the Package Manufacturing Industry</t>
         </is>
       </c>
       <c r="C171" s="63">
-        <v>6500000</v>
+        <v>3500000</v>
       </c>
       <c t="inlineStr" r="D171">
         <is>
-          <t xml:space="preserve">Mandaluyong</t>
-        </is>
-      </c>
-      <c r="E171" s="63">
-        <v>7262821</v>
-      </c>
-      <c r="F171" s="63">
-        <v>2644000</v>
+          <t xml:space="preserve">Metro Manila</t>
+        </is>
+      </c>
+      <c r="E171" s="65">
+        <v>0</v>
+      </c>
+      <c r="F171" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G171">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Industrial Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H171">
         <is>
-          <t xml:space="preserve">Massage</t>
+          <t xml:space="preserve">Paper/Printing</t>
         </is>
       </c>
       <c t="inlineStr" r="I171">
         <is>
-          <t xml:space="preserve">Raffy Salaveria</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J171">
-        <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Poncho Claudio</t>
         </is>
       </c>
       <c t="inlineStr" r="K171">
@@ -7720,35 +7700,45 @@
     </row>
     <row r="172">
       <c t="str" r="A172" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00363/Turn-Your-Passion-Into-Profit-Now","OR00363")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00362/Resort-Themed-Spa-in-the-Heart-of-the-City","OR00362")</f>
       </c>
       <c t="inlineStr" r="B172">
         <is>
-          <t xml:space="preserve">Turn Your Passion Into Profit Now</t>
+          <t xml:space="preserve">Resort Themed Spa in the Heart of the City</t>
         </is>
       </c>
       <c r="C172" s="63">
-        <v>27000000</v>
+        <v>6500000</v>
       </c>
       <c t="inlineStr" r="D172">
         <is>
-          <t xml:space="preserve">Manila</t>
-        </is>
-      </c>
-      <c r="E172" s="65">
-        <v>0</v>
-      </c>
-      <c r="F172" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Mandaluyong</t>
+        </is>
+      </c>
+      <c r="E172" s="63">
+        <v>7262821</v>
+      </c>
+      <c r="F172" s="63">
+        <v>2644000</v>
       </c>
       <c t="inlineStr" r="G172">
         <is>
-          <t xml:space="preserve">Education/Training</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H172">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Massage</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I172">
+        <is>
+          <t xml:space="preserve">Raffy Salaveria</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J172">
+        <is>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K172">
@@ -7759,19 +7749,19 @@
     </row>
     <row r="173">
       <c t="str" r="A173" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00364/Industrial-Refrigeration-Business-with-%e2%82%b1600M-Pipeline","OR00364")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00363/Turn-Your-Passion-Into-Profit-Now","OR00363")</f>
       </c>
       <c t="inlineStr" r="B173">
         <is>
-          <t xml:space="preserve">Industrial Refrigeration Business with ₱600M Pipeline</t>
+          <t xml:space="preserve">Turn Your Passion Into Profit Now</t>
         </is>
       </c>
       <c r="C173" s="63">
-        <v>30000000</v>
+        <v>27000000</v>
       </c>
       <c t="inlineStr" r="D173">
         <is>
-          <t xml:space="preserve">Calabarzon</t>
+          <t xml:space="preserve">Manila</t>
         </is>
       </c>
       <c r="E173" s="65">
@@ -7782,32 +7772,27 @@
       </c>
       <c t="inlineStr" r="G173">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Education/Training</t>
         </is>
       </c>
       <c t="inlineStr" r="H173">
         <is>
-          <t xml:space="preserve">Machinery</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I173">
-        <is>
-          <t xml:space="preserve">Joji Upano</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="K173">
         <is>
-          <t xml:space="preserve">for 30% share plus VAT</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c t="str" r="A174" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00365/A-Taste-of-Filipino-Favorites","OR00365")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00364/Industrial-Refrigeration-Business-with-%e2%82%b1600M-Pipeline","OR00364")</f>
       </c>
       <c t="inlineStr" r="B174">
         <is>
-          <t xml:space="preserve">A Taste of Filipino Favorites</t>
+          <t xml:space="preserve">Industrial Refrigeration Business with ₱600M Pipeline</t>
         </is>
       </c>
       <c r="C174" s="63">
@@ -7815,7 +7800,7 @@
       </c>
       <c t="inlineStr" r="D174">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Calabarzon</t>
         </is>
       </c>
       <c r="E174" s="65">
@@ -7826,40 +7811,40 @@
       </c>
       <c t="inlineStr" r="G174">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H174">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Machinery</t>
         </is>
       </c>
       <c t="inlineStr" r="I174">
         <is>
-          <t xml:space="preserve">Maria Morris</t>
+          <t xml:space="preserve">Joji Upano</t>
         </is>
       </c>
       <c t="inlineStr" r="K174">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">for 30% share plus VAT</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c t="str" r="A175" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00367/FRANCHISE-RESTO-READY-TO-GO","OR00367")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00365/A-Taste-of-Filipino-Favorites","OR00365")</f>
       </c>
       <c t="inlineStr" r="B175">
         <is>
-          <t xml:space="preserve">FRANCHISE RESTO READY TO GO</t>
+          <t xml:space="preserve">A Taste of Filipino Favorites</t>
         </is>
       </c>
       <c r="C175" s="63">
-        <v>3500000</v>
+        <v>30000000</v>
       </c>
       <c t="inlineStr" r="D175">
         <is>
-          <t xml:space="preserve">Palawan</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
       <c r="E175" s="65">
@@ -7880,7 +7865,7 @@
       </c>
       <c t="inlineStr" r="I175">
         <is>
-          <t xml:space="preserve">Eduardo M Dayrit</t>
+          <t xml:space="preserve">Maria Morris</t>
         </is>
       </c>
       <c t="inlineStr" r="K175">
@@ -7891,79 +7876,79 @@
     </row>
     <row r="176">
       <c t="str" r="A176" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00369/Own-This-Affordable-and-Growing-Cocktail-Bar-In-QC!","OR00369")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00367/FRANCHISE-RESTO-READY-TO-GO","OR00367")</f>
       </c>
       <c t="inlineStr" r="B176">
         <is>
-          <t xml:space="preserve">Own This Affordable and Growing Cocktail Bar In QC!</t>
+          <t xml:space="preserve">FRANCHISE RESTO READY TO GO</t>
         </is>
       </c>
       <c r="C176" s="63">
-        <v>1300000</v>
+        <v>3500000</v>
       </c>
       <c t="inlineStr" r="D176">
         <is>
-          <t xml:space="preserve">Quezon City</t>
-        </is>
-      </c>
-      <c r="E176" s="63">
-        <v>1177000</v>
+          <t xml:space="preserve">Palawan</t>
+        </is>
+      </c>
+      <c r="E176" s="65">
+        <v>0</v>
       </c>
       <c r="F176" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G176">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="H176">
         <is>
-          <t xml:space="preserve">Alcohol/Liquor</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I176">
         <is>
-          <t xml:space="preserve">Benjie Tabayag</t>
+          <t xml:space="preserve">Eduardo M Dayrit</t>
         </is>
       </c>
       <c t="inlineStr" r="K176">
         <is>
-          <t xml:space="preserve">plus all applicable taxes</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c t="str" r="A177" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00370/A-Leading-and-Profitable-Photography-Agency","OR00370")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00369/Own-This-Affordable-and-Growing-Cocktail-Bar-In-QC!","OR00369")</f>
       </c>
       <c t="inlineStr" r="B177">
         <is>
-          <t xml:space="preserve">A Leading and Profitable Photography Agency</t>
+          <t xml:space="preserve">Own This Affordable and Growing Cocktail Bar In QC!</t>
         </is>
       </c>
       <c r="C177" s="63">
-        <v>12000000</v>
+        <v>1300000</v>
       </c>
       <c t="inlineStr" r="D177">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E177" s="63">
-        <v>40000000</v>
+        <v>1177000</v>
       </c>
       <c r="F177" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G177">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H177">
         <is>
-          <t xml:space="preserve">Print/Photo/Video</t>
+          <t xml:space="preserve">Alcohol/Liquor</t>
         </is>
       </c>
       <c t="inlineStr" r="I177">
@@ -7971,164 +7956,159 @@
           <t xml:space="preserve">Benjie Tabayag</t>
         </is>
       </c>
-      <c t="inlineStr" r="J177">
-        <is>
-          <t xml:space="preserve">Jard Gerona</t>
-        </is>
-      </c>
       <c t="inlineStr" r="K177">
         <is>
-          <t xml:space="preserve">plus applicable taxes</t>
+          <t xml:space="preserve">plus all applicable taxes</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c t="str" r="A178" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00372/Sweet-Uprising-Desserts%2c-Juices-and-Shakes","OR00372")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00370/A-Leading-and-Profitable-Photography-Agency","OR00370")</f>
       </c>
       <c t="inlineStr" r="B178">
         <is>
-          <t xml:space="preserve">Sweet Uprising Desserts, Juices and Shakes</t>
+          <t xml:space="preserve">A Leading and Profitable Photography Agency</t>
         </is>
       </c>
       <c r="C178" s="63">
-        <v>800000</v>
+        <v>12000000</v>
       </c>
       <c t="inlineStr" r="D178">
         <is>
-          <t xml:space="preserve">Makati</t>
-        </is>
-      </c>
-      <c r="E178" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Metro Manila</t>
+        </is>
+      </c>
+      <c r="E178" s="63">
+        <v>40000000</v>
       </c>
       <c r="F178" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G178">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H178">
         <is>
-          <t xml:space="preserve">Food Cart</t>
+          <t xml:space="preserve">Print/Photo/Video</t>
         </is>
       </c>
       <c t="inlineStr" r="I178">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Benjie Tabayag</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J178">
+        <is>
+          <t xml:space="preserve">Jard Gerona</t>
         </is>
       </c>
       <c t="inlineStr" r="K178">
         <is>
-          <t xml:space="preserve">Negotiable</t>
+          <t xml:space="preserve">plus applicable taxes</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c t="str" r="A179" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00373/Triple-A-Construction-Company","OR00373")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00372/Sweet-Uprising-Desserts%2c-Juices-and-Shakes","OR00372")</f>
       </c>
       <c t="inlineStr" r="B179">
         <is>
-          <t xml:space="preserve">Triple A Construction Company</t>
+          <t xml:space="preserve">Sweet Uprising Desserts, Juices and Shakes</t>
         </is>
       </c>
       <c r="C179" s="63">
-        <v>600000000</v>
+        <v>800000</v>
       </c>
       <c t="inlineStr" r="D179">
         <is>
-          <t xml:space="preserve">Quezon City</t>
-        </is>
-      </c>
-      <c r="E179" s="63">
-        <v>500000000</v>
+          <t xml:space="preserve">Makati</t>
+        </is>
+      </c>
+      <c r="E179" s="65">
+        <v>0</v>
       </c>
       <c r="F179" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G179">
         <is>
-          <t xml:space="preserve">Building/Construction</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H179">
         <is>
-          <t xml:space="preserve">Contractor</t>
+          <t xml:space="preserve">Food Cart</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I179">
+        <is>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K179">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Negotiable</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c t="str" r="A180" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00375/Semiconductor-Company-looking-for-a-Working-Capital-Loan-Line","OR00375")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00373/Triple-A-Construction-Company","OR00373")</f>
       </c>
       <c t="inlineStr" r="B180">
         <is>
-          <t xml:space="preserve">Semiconductor Company looking for a Working Capital Loan Line</t>
+          <t xml:space="preserve">Triple A Construction Company</t>
         </is>
       </c>
       <c r="C180" s="63">
-        <v>520000000</v>
+        <v>600000000</v>
       </c>
       <c t="inlineStr" r="D180">
         <is>
-          <t xml:space="preserve">National Capital Region</t>
-        </is>
-      </c>
-      <c r="E180" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Quezon City</t>
+        </is>
+      </c>
+      <c r="E180" s="63">
+        <v>500000000</v>
       </c>
       <c r="F180" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G180">
         <is>
-          <t xml:space="preserve">Import/Export/Wholesale</t>
+          <t xml:space="preserve">Building/Construction</t>
         </is>
       </c>
       <c t="inlineStr" r="H180">
         <is>
-          <t xml:space="preserve">Export</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I180">
-        <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J180">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Contractor</t>
         </is>
       </c>
       <c t="inlineStr" r="K180">
         <is>
-          <t xml:space="preserve">Based on reqt. of $10,000,000</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c t="str" r="A181" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00376/%e2%82%b1100M-2018-Sales-Top-International-Cosmetics-Brand","OR00376")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00375/Semiconductor-Company-looking-for-a-Working-Capital-Loan-Line","OR00375")</f>
       </c>
       <c t="inlineStr" r="B181">
         <is>
-          <t xml:space="preserve">₱100M 2018 Sales Top International Cosmetics Brand</t>
+          <t xml:space="preserve">Semiconductor Company looking for a Working Capital Loan Line</t>
         </is>
       </c>
       <c r="C181" s="63">
-        <v>100000000</v>
+        <v>520000000</v>
       </c>
       <c t="inlineStr" r="D181">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">National Capital Region</t>
         </is>
       </c>
       <c r="E181" s="65">
@@ -8139,193 +8119,198 @@
       </c>
       <c t="inlineStr" r="G181">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Import/Export/Wholesale</t>
         </is>
       </c>
       <c t="inlineStr" r="H181">
         <is>
-          <t xml:space="preserve">Beauty Products</t>
+          <t xml:space="preserve">Export</t>
         </is>
       </c>
       <c t="inlineStr" r="I181">
         <is>
-          <t xml:space="preserve">Ricky Gumaru</t>
+          <t xml:space="preserve">Dan R Francisco</t>
         </is>
       </c>
       <c t="inlineStr" r="J181">
         <is>
-          <t xml:space="preserve">Roberto Narciso</t>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K181">
         <is>
-          <t xml:space="preserve">plus any applicable tax</t>
+          <t xml:space="preserve">Based on reqt. of $10,000,000</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c t="str" r="A182" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00377/A-Fiery-Fuel-for-your-Next-Success","OR00377")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00376/%e2%82%b1100M-2018-Sales-Top-International-Cosmetics-Brand","OR00376")</f>
       </c>
       <c t="inlineStr" r="B182">
         <is>
-          <t xml:space="preserve">A Fiery Fuel for your Next Success</t>
+          <t xml:space="preserve">₱100M 2018 Sales Top International Cosmetics Brand</t>
         </is>
       </c>
       <c r="C182" s="63">
-        <v>4000000</v>
+        <v>100000000</v>
       </c>
       <c t="inlineStr" r="D182">
         <is>
-          <t xml:space="preserve">Quezon City</t>
-        </is>
-      </c>
-      <c r="E182" s="63">
-        <v>5672727</v>
+          <t xml:space="preserve">Metro Manila</t>
+        </is>
+      </c>
+      <c r="E182" s="65">
+        <v>0</v>
       </c>
       <c r="F182" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G182">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H182">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Beauty Products</t>
         </is>
       </c>
       <c t="inlineStr" r="I182">
         <is>
-          <t xml:space="preserve">Kris Garcia</t>
+          <t xml:space="preserve">Ricky Gumaru</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J182">
+        <is>
+          <t xml:space="preserve">Roberto Narciso</t>
         </is>
       </c>
       <c t="inlineStr" r="K182">
         <is>
-          <t xml:space="preserve">RUSH SALE</t>
+          <t xml:space="preserve">plus any applicable tax</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c t="str" r="A183" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00378/Philippine-Based-Beauty-Products-Distribution-Company","OR00378")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00377/A-Fiery-Fuel-for-your-Next-Success","OR00377")</f>
       </c>
       <c t="inlineStr" r="B183">
         <is>
-          <t xml:space="preserve">Philippine Based Beauty Products Distribution Company</t>
+          <t xml:space="preserve">A Fiery Fuel for your Next Success</t>
         </is>
       </c>
       <c r="C183" s="63">
-        <v>14000000</v>
+        <v>4000000</v>
       </c>
       <c t="inlineStr" r="D183">
         <is>
-          <t xml:space="preserve">Pasig</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E183" s="63">
-        <v>6438445</v>
+        <v>5672727</v>
       </c>
       <c r="F183" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G183">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H183">
         <is>
-          <t xml:space="preserve">Beauty Products</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="I183">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Kris Garcia</t>
         </is>
       </c>
       <c t="inlineStr" r="K183">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">RUSH SALE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c t="str" r="A184" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00379/Highly-Regarded-Caf%c3%a9-Restaurant-in-Cavite","OR00379")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00378/Philippine-Based-Beauty-Products-Distribution-Company","OR00378")</f>
       </c>
       <c t="inlineStr" r="B184">
         <is>
-          <t xml:space="preserve">Highly Regarded Café Restaurant in Cavite</t>
+          <t xml:space="preserve">Philippine Based Beauty Products Distribution Company</t>
         </is>
       </c>
       <c r="C184" s="63">
-        <v>1200000</v>
+        <v>14000000</v>
       </c>
       <c t="inlineStr" r="D184">
         <is>
-          <t xml:space="preserve">Cavite</t>
+          <t xml:space="preserve">Pasig</t>
         </is>
       </c>
       <c r="E184" s="63">
-        <v>1110874</v>
-      </c>
-      <c r="F184" s="63">
-        <v>235187</v>
+        <v>6438445</v>
+      </c>
+      <c r="F184" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G184">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H184">
         <is>
-          <t xml:space="preserve">Coffee Shop</t>
+          <t xml:space="preserve">Beauty Products</t>
         </is>
       </c>
       <c t="inlineStr" r="I184">
         <is>
-          <t xml:space="preserve">Benjie Tabayag</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K184">
         <is>
-          <t xml:space="preserve">plus security deposits and any applicable taxes</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c t="str" r="A185" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00380/Grab-This-Earning-Men%e2%80%99s-Grooming-Business-in-QC!","OR00380")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00379/Highly-Regarded-Caf%c3%a9-Restaurant-in-Cavite","OR00379")</f>
       </c>
       <c t="inlineStr" r="B185">
         <is>
-          <t xml:space="preserve">Grab This Earning Men’s Grooming Business in QC!</t>
+          <t xml:space="preserve">Highly Regarded Café Restaurant in Cavite</t>
         </is>
       </c>
       <c r="C185" s="63">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c t="inlineStr" r="D185">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">Cavite</t>
         </is>
       </c>
       <c r="E185" s="63">
-        <v>2628591</v>
-      </c>
-      <c r="F185" s="65">
-        <v>0</v>
+        <v>1110874</v>
+      </c>
+      <c r="F185" s="63">
+        <v>235187</v>
       </c>
       <c t="inlineStr" r="G185">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H185">
         <is>
-          <t xml:space="preserve">Hair</t>
+          <t xml:space="preserve">Coffee Shop</t>
         </is>
       </c>
       <c t="inlineStr" r="I185">
@@ -8341,133 +8326,133 @@
     </row>
     <row r="186">
       <c t="str" r="A186" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00381/Strategically-situated-Hospital-in-Rizal","OR00381")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00380/Grab-This-Earning-Men%e2%80%99s-Grooming-Business-in-QC!","OR00380")</f>
       </c>
       <c t="inlineStr" r="B186">
         <is>
-          <t xml:space="preserve">Strategically situated Hospital in Rizal</t>
+          <t xml:space="preserve">Grab This Earning Men’s Grooming Business in QC!</t>
         </is>
       </c>
       <c r="C186" s="63">
-        <v>120000000</v>
+        <v>4000000</v>
       </c>
       <c t="inlineStr" r="D186">
         <is>
-          <t xml:space="preserve">Rizal</t>
-        </is>
-      </c>
-      <c r="E186" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Quezon City</t>
+        </is>
+      </c>
+      <c r="E186" s="63">
+        <v>2628591</v>
       </c>
       <c r="F186" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G186">
         <is>
-          <t xml:space="preserve">Building/Construction</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H186">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">Hair</t>
         </is>
       </c>
       <c t="inlineStr" r="I186">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J186">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Benjie Tabayag</t>
         </is>
       </c>
       <c t="inlineStr" r="K186">
         <is>
-          <t xml:space="preserve">plus any applicable taxes</t>
+          <t xml:space="preserve">plus security deposits and any applicable taxes</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c t="str" r="A187" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00382/Growing-in-Profits%2c-Established-Garments-Manufacturing","OR00382")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00381/Strategically-situated-Hospital-in-Rizal","OR00381")</f>
       </c>
       <c t="inlineStr" r="B187">
         <is>
-          <t xml:space="preserve">Growing in Profits, Established Garments Manufacturing</t>
+          <t xml:space="preserve">Strategically situated Hospital in Rizal</t>
         </is>
       </c>
       <c r="C187" s="63">
-        <v>15000000</v>
+        <v>120000000</v>
       </c>
       <c t="inlineStr" r="D187">
         <is>
-          <t xml:space="preserve">Quezon City</t>
-        </is>
-      </c>
-      <c r="E187" s="63">
-        <v>12849150</v>
+          <t xml:space="preserve">Rizal</t>
+        </is>
+      </c>
+      <c r="E187" s="65">
+        <v>0</v>
       </c>
       <c r="F187" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G187">
         <is>
-          <t xml:space="preserve">Industrial Manufacturing</t>
+          <t xml:space="preserve">Building/Construction</t>
         </is>
       </c>
       <c t="inlineStr" r="H187">
         <is>
-          <t xml:space="preserve">Clothing/Footwear</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="I187">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Dan R Francisco</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J187">
+        <is>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K187">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">plus any applicable taxes</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c t="str" r="A188" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00383/Food%2c-Drinks-and-Boardgames","OR00383")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00382/Growing-in-Profits%2c-Established-Garments-Manufacturing","OR00382")</f>
       </c>
       <c t="inlineStr" r="B188">
         <is>
-          <t xml:space="preserve">Food, Drinks and Boardgames</t>
+          <t xml:space="preserve">Growing in Profits, Established Garments Manufacturing</t>
         </is>
       </c>
       <c r="C188" s="63">
-        <v>1100000</v>
+        <v>15000000</v>
       </c>
       <c t="inlineStr" r="D188">
         <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-      <c r="E188" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Quezon City</t>
+        </is>
+      </c>
+      <c r="E188" s="63">
+        <v>12849150</v>
       </c>
       <c r="F188" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G188">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Industrial Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H188">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Clothing/Footwear</t>
         </is>
       </c>
       <c t="inlineStr" r="I188">
         <is>
-          <t xml:space="preserve">Mario Bate</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K188">
@@ -8478,30 +8463,30 @@
     </row>
     <row r="189">
       <c t="str" r="A189" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00384/Luxury-Wellness-Spa-in-Quezon-City","OR00384")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00383/Food%2c-Drinks-and-Boardgames","OR00383")</f>
       </c>
       <c t="inlineStr" r="B189">
         <is>
-          <t xml:space="preserve">Luxury Wellness Spa in Quezon City</t>
+          <t xml:space="preserve">Food, Drinks and Boardgames</t>
         </is>
       </c>
       <c r="C189" s="63">
-        <v>1800000</v>
+        <v>1100000</v>
       </c>
       <c t="inlineStr" r="D189">
         <is>
-          <t xml:space="preserve">Quezon City</t>
-        </is>
-      </c>
-      <c r="E189" s="63">
-        <v>700000</v>
+          <t xml:space="preserve">-----</t>
+        </is>
+      </c>
+      <c r="E189" s="65">
+        <v>0</v>
       </c>
       <c r="F189" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G189">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="H189">
@@ -8511,34 +8496,34 @@
       </c>
       <c t="inlineStr" r="I189">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Mario Bate</t>
         </is>
       </c>
       <c t="inlineStr" r="K189">
         <is>
-          <t xml:space="preserve">Negotiable</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c t="str" r="A190" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00385/Profitable%2c-Established-Advertising-Agency-with-High-Profile-Clients-including-Blue-Chip-Companies","OR00385")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00384/Luxury-Wellness-Spa-in-Quezon-City","OR00384")</f>
       </c>
       <c t="inlineStr" r="B190">
         <is>
-          <t xml:space="preserve">Profitable, Established Advertising Agency with High Profile Clients including Blue Chip Companies</t>
+          <t xml:space="preserve">Luxury Wellness Spa in Quezon City</t>
         </is>
       </c>
       <c r="C190" s="63">
-        <v>30000000</v>
+        <v>1800000</v>
       </c>
       <c t="inlineStr" r="D190">
         <is>
-          <t xml:space="preserve">Makati</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E190" s="63">
-        <v>25541979</v>
+        <v>700000</v>
       </c>
       <c r="F190" s="65">
         <v>0</v>
@@ -8560,36 +8545,36 @@
       </c>
       <c t="inlineStr" r="K190">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Negotiable</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c t="str" r="A191" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00386/THE-BPO-SPECIALIST-FOR-INTEGRATED-SOLUTIONS","OR00386")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00385/Profitable%2c-Established-Advertising-Agency-with-High-Profile-Clients-including-Blue-Chip-Companies","OR00385")</f>
       </c>
       <c t="inlineStr" r="B191">
         <is>
-          <t xml:space="preserve">THE BPO SPECIALIST FOR INTEGRATED SOLUTIONS</t>
-        </is>
-      </c>
-      <c r="C191" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Profitable, Established Advertising Agency with High Profile Clients including Blue Chip Companies</t>
+        </is>
+      </c>
+      <c r="C191" s="63">
+        <v>30000000</v>
       </c>
       <c t="inlineStr" r="D191">
         <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-      <c r="E191" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Makati</t>
+        </is>
+      </c>
+      <c r="E191" s="63">
+        <v>25541979</v>
       </c>
       <c r="F191" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G191">
         <is>
-          <t xml:space="preserve">Technology/Computer/IT</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H191">
@@ -8599,30 +8584,30 @@
       </c>
       <c t="inlineStr" r="I191">
         <is>
-          <t xml:space="preserve">Eduardo M Dayrit</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K191">
         <is>
-          <t xml:space="preserve">Refer to Broker</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c t="str" r="A192" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00387/Top-50-to-100-Seater-Morato-Restobar","OR00387")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00386/THE-BPO-SPECIALIST-FOR-INTEGRATED-SOLUTIONS","OR00386")</f>
       </c>
       <c t="inlineStr" r="B192">
         <is>
-          <t xml:space="preserve">Top 50 to 100 Seater Morato Restobar</t>
-        </is>
-      </c>
-      <c r="C192" s="63">
-        <v>4200000</v>
+          <t xml:space="preserve">THE BPO SPECIALIST FOR INTEGRATED SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="C192" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="D192">
         <is>
-          <t xml:space="preserve">Quezon City</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
       <c r="E192" s="65">
@@ -8633,45 +8618,40 @@
       </c>
       <c t="inlineStr" r="G192">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Technology/Computer/IT</t>
         </is>
       </c>
       <c t="inlineStr" r="H192">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I192">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J192">
-        <is>
-          <t xml:space="preserve">Caryl Joanne Nonato</t>
+          <t xml:space="preserve">Eduardo M Dayrit</t>
         </is>
       </c>
       <c t="inlineStr" r="K192">
         <is>
-          <t xml:space="preserve">Plus any applicable taxes</t>
+          <t xml:space="preserve">Refer to Broker</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c t="str" r="A193" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00388/Fast-Growing-Personal-Care-Products-Manufacturing","OR00388")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00387/Top-50-to-100-Seater-Morato-Restobar","OR00387")</f>
       </c>
       <c t="inlineStr" r="B193">
         <is>
-          <t xml:space="preserve">Fast Growing Personal Care Products Manufacturing</t>
+          <t xml:space="preserve">Top 50 to 100 Seater Morato Restobar</t>
         </is>
       </c>
       <c r="C193" s="63">
-        <v>227000000</v>
+        <v>4200000</v>
       </c>
       <c t="inlineStr" r="D193">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
+          <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
       <c r="E193" s="65">
@@ -8682,45 +8662,45 @@
       </c>
       <c t="inlineStr" r="G193">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H193">
         <is>
-          <t xml:space="preserve">Beauty Products</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="I193">
         <is>
-          <t xml:space="preserve">Joji Upano</t>
+          <t xml:space="preserve">Dan R Francisco</t>
         </is>
       </c>
       <c t="inlineStr" r="J193">
         <is>
-          <t xml:space="preserve">Augusto Soliman</t>
+          <t xml:space="preserve">Caryl Joanne Nonato</t>
         </is>
       </c>
       <c t="inlineStr" r="K193">
         <is>
-          <t xml:space="preserve">Representing 70% share of the company</t>
+          <t xml:space="preserve">Plus any applicable taxes</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c t="str" r="A194" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00389/Your-Neighborhood-Reputable-Sports-Bar","OR00389")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00388/Fast-Growing-Personal-Care-Products-Manufacturing","OR00388")</f>
       </c>
       <c t="inlineStr" r="B194">
         <is>
-          <t xml:space="preserve">Your Neighborhood Reputable Sports Bar</t>
+          <t xml:space="preserve">Fast Growing Personal Care Products Manufacturing</t>
         </is>
       </c>
       <c r="C194" s="63">
-        <v>1800000</v>
+        <v>227000000</v>
       </c>
       <c t="inlineStr" r="D194">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Metro Manila</t>
         </is>
       </c>
       <c r="E194" s="65">
@@ -8731,129 +8711,129 @@
       </c>
       <c t="inlineStr" r="G194">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H194">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Beauty Products</t>
         </is>
       </c>
       <c t="inlineStr" r="I194">
         <is>
-          <t xml:space="preserve">Jard Gerona</t>
+          <t xml:space="preserve">Joji Upano</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J194">
+        <is>
+          <t xml:space="preserve">Augusto Soliman</t>
         </is>
       </c>
       <c t="inlineStr" r="K194">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Representing 70% share of the company</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c t="str" r="A195" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00390/Own-this-Earning-and-Spacious-Wellness-Spa-in-QC!","OR00390")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00389/Your-Neighborhood-Reputable-Sports-Bar","OR00389")</f>
       </c>
       <c t="inlineStr" r="B195">
         <is>
-          <t xml:space="preserve">Own this Earning and Spacious Wellness Spa in QC!</t>
+          <t xml:space="preserve">Your Neighborhood Reputable Sports Bar</t>
         </is>
       </c>
       <c r="C195" s="63">
-        <v>3200000</v>
+        <v>1800000</v>
       </c>
       <c t="inlineStr" r="D195">
         <is>
-          <t xml:space="preserve">Quezon City</t>
-        </is>
-      </c>
-      <c r="E195" s="63">
-        <v>3837672</v>
-      </c>
-      <c r="F195" s="63">
-        <v>648397</v>
+          <t xml:space="preserve">-----</t>
+        </is>
+      </c>
+      <c r="E195" s="65">
+        <v>0</v>
+      </c>
+      <c r="F195" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G195">
         <is>
-          <t xml:space="preserve">Beauty/Health</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H195">
         <is>
-          <t xml:space="preserve">Massage</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I195">
         <is>
-          <t xml:space="preserve">Benjie Tabayag</t>
+          <t xml:space="preserve">Jard Gerona</t>
         </is>
       </c>
       <c t="inlineStr" r="K195">
         <is>
-          <t xml:space="preserve">plus applicable taxes</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c t="str" r="A196" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00392/Unlimited-Korean-BBQ-restaurant-up-for-grabs!","OR00392")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00390/Own-this-Earning-and-Spacious-Wellness-Spa-in-QC!","OR00390")</f>
       </c>
       <c t="inlineStr" r="B196">
         <is>
-          <t xml:space="preserve">Unlimited Korean BBQ restaurant up for grabs!</t>
+          <t xml:space="preserve">Own this Earning and Spacious Wellness Spa in QC!</t>
         </is>
       </c>
       <c r="C196" s="63">
-        <v>3000000</v>
+        <v>3200000</v>
       </c>
       <c t="inlineStr" r="D196">
         <is>
           <t xml:space="preserve">Quezon City</t>
         </is>
       </c>
-      <c r="E196" s="65">
-        <v>0</v>
-      </c>
-      <c r="F196" s="65">
-        <v>0</v>
+      <c r="E196" s="63">
+        <v>3837672</v>
+      </c>
+      <c r="F196" s="63">
+        <v>648397</v>
       </c>
       <c t="inlineStr" r="G196">
         <is>
-          <t xml:space="preserve">Food/Beverage</t>
+          <t xml:space="preserve">Beauty/Health</t>
         </is>
       </c>
       <c t="inlineStr" r="H196">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Massage</t>
         </is>
       </c>
       <c t="inlineStr" r="I196">
         <is>
-          <t xml:space="preserve">Raffy Salaveria</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J196">
-        <is>
-          <t xml:space="preserve">Mario Bate</t>
+          <t xml:space="preserve">Benjie Tabayag</t>
         </is>
       </c>
       <c t="inlineStr" r="K196">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">plus applicable taxes</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c t="str" r="A197" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00393/Customized-Filipino-Dish-To-Satisfy-Cravings-(Closed)","OR00393")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00392/Unlimited-Korean-BBQ-restaurant-up-for-grabs!","OR00392")</f>
       </c>
       <c t="inlineStr" r="B197">
         <is>
-          <t xml:space="preserve">Customized Filipino Dish To Satisfy Cravings (Closed)</t>
+          <t xml:space="preserve">Unlimited Korean BBQ restaurant up for grabs!</t>
         </is>
       </c>
       <c r="C197" s="63">
-        <v>1900000</v>
+        <v>3000000</v>
       </c>
       <c t="inlineStr" r="D197">
         <is>
@@ -8878,7 +8858,12 @@
       </c>
       <c t="inlineStr" r="I197">
         <is>
-          <t xml:space="preserve">Joji Upano</t>
+          <t xml:space="preserve">Raffy Salaveria</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J197">
+        <is>
+          <t xml:space="preserve">Mario Bate</t>
         </is>
       </c>
       <c t="inlineStr" r="K197">
@@ -8889,23 +8874,23 @@
     </row>
     <row r="198">
       <c t="str" r="A198" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00394/60-Store-Filipino-Food-Chain%e2%80%a6-Great-Cash-Flow","OR00394")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00393/Customized-Filipino-Dish-To-Satisfy-Cravings-(Closed)","OR00393")</f>
       </c>
       <c t="inlineStr" r="B198">
         <is>
-          <t xml:space="preserve">60 Store Filipino Food Chain… Great Cash Flow</t>
+          <t xml:space="preserve">Customized Filipino Dish To Satisfy Cravings (Closed)</t>
         </is>
       </c>
       <c r="C198" s="63">
-        <v>130000000</v>
+        <v>1900000</v>
       </c>
       <c t="inlineStr" r="D198">
         <is>
-          <t xml:space="preserve">Metro Manila</t>
-        </is>
-      </c>
-      <c r="E198" s="63">
-        <v>370000000</v>
+          <t xml:space="preserve">Quezon City</t>
+        </is>
+      </c>
+      <c r="E198" s="65">
+        <v>0</v>
       </c>
       <c r="F198" s="65">
         <v>0</v>
@@ -8917,79 +8902,79 @@
       </c>
       <c t="inlineStr" r="H198">
         <is>
-          <t xml:space="preserve">Fast Food</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="I198">
         <is>
-          <t xml:space="preserve">Dan R Francisco</t>
+          <t xml:space="preserve">Joji Upano</t>
         </is>
       </c>
       <c t="inlineStr" r="K198">
         <is>
-          <t xml:space="preserve">plus any applicable taxes</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c t="str" r="A199" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00395/3-PREMIER-PRESCHOOLS-WITH--A-FRANCHISE-SYSTEM-IN-PLACE","OR00395")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00394/60-Store-Filipino-Food-Chain%e2%80%a6-Great-Cash-Flow","OR00394")</f>
       </c>
       <c t="inlineStr" r="B199">
         <is>
-          <t xml:space="preserve">3 PREMIER PRESCHOOLS WITH  A FRANCHISE SYSTEM IN PLACE</t>
+          <t xml:space="preserve">60 Store Filipino Food Chain… Great Cash Flow</t>
         </is>
       </c>
       <c r="C199" s="63">
-        <v>48000000</v>
+        <v>130000000</v>
       </c>
       <c t="inlineStr" r="D199">
         <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-      <c r="E199" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Metro Manila</t>
+        </is>
+      </c>
+      <c r="E199" s="63">
+        <v>370000000</v>
       </c>
       <c r="F199" s="65">
         <v>0</v>
       </c>
       <c t="inlineStr" r="G199">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
       <c t="inlineStr" r="H199">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Fast Food</t>
         </is>
       </c>
       <c t="inlineStr" r="I199">
         <is>
-          <t xml:space="preserve">Kris Garcia</t>
+          <t xml:space="preserve">Dan R Francisco</t>
         </is>
       </c>
       <c t="inlineStr" r="K199">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">plus any applicable taxes</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c t="str" r="A200" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00396/Well-Regarded-Preschool-%26-Child-Care-Center","OR00396")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00395/3-PREMIER-PRESCHOOLS-WITH--A-FRANCHISE-SYSTEM-IN-PLACE","OR00395")</f>
       </c>
       <c t="inlineStr" r="B200">
         <is>
-          <t xml:space="preserve">Well Regarded Preschool &amp; Child Care Center</t>
+          <t xml:space="preserve">3 PREMIER PRESCHOOLS WITH  A FRANCHISE SYSTEM IN PLACE</t>
         </is>
       </c>
       <c r="C200" s="63">
-        <v>8000000</v>
+        <v>48000000</v>
       </c>
       <c t="inlineStr" r="D200">
         <is>
-          <t xml:space="preserve">Makati</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
       <c r="E200" s="65">
@@ -9000,7 +8985,7 @@
       </c>
       <c t="inlineStr" r="G200">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="H200">
@@ -9021,15 +9006,15 @@
     </row>
     <row r="201">
       <c t="str" r="A201" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00397/2-POPULAR-PRESCHOOLS-AND-CHILD-CARE-CENTERS","OR00397")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00396/Well-Regarded-Preschool-%26-Child-Care-Center","OR00396")</f>
       </c>
       <c t="inlineStr" r="B201">
         <is>
-          <t xml:space="preserve">2 POPULAR PRESCHOOLS AND CHILD CARE CENTERS</t>
+          <t xml:space="preserve">Well Regarded Preschool &amp; Child Care Center</t>
         </is>
       </c>
       <c r="C201" s="63">
-        <v>23000000</v>
+        <v>8000000</v>
       </c>
       <c t="inlineStr" r="D201">
         <is>
@@ -9065,15 +9050,15 @@
     </row>
     <row r="202">
       <c t="str" r="A202" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00398/Hip-Online-Based-Apparel-for--Gen-Z-Market","OR00398")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00397/2-POPULAR-PRESCHOOLS-AND-CHILD-CARE-CENTERS","OR00397")</f>
       </c>
       <c t="inlineStr" r="B202">
         <is>
-          <t xml:space="preserve">Hip Online Based Apparel for  Gen Z Market</t>
-        </is>
-      </c>
-      <c r="C202" s="65">
-        <v>0</v>
+          <t xml:space="preserve">2 POPULAR PRESCHOOLS AND CHILD CARE CENTERS</t>
+        </is>
+      </c>
+      <c r="C202" s="63">
+        <v>23000000</v>
       </c>
       <c t="inlineStr" r="D202">
         <is>
@@ -9088,7 +9073,7 @@
       </c>
       <c t="inlineStr" r="G202">
         <is>
-          <t xml:space="preserve">Retail General</t>
+          <t xml:space="preserve">Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H202">
@@ -9103,25 +9088,25 @@
       </c>
       <c t="inlineStr" r="K202">
         <is>
-          <t xml:space="preserve">Refer to Broker</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c t="str" r="A203" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00400/Fast-Growing-Milk-Tea-Franchise-from-Taiwan","OR00400")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00398/Hip-Online-Based-Apparel-for--Gen-Z-Market","OR00398")</f>
       </c>
       <c t="inlineStr" r="B203">
         <is>
-          <t xml:space="preserve">Fast Growing Milk Tea Franchise from Taiwan</t>
-        </is>
-      </c>
-      <c r="C203" s="63">
-        <v>2350000</v>
+          <t xml:space="preserve">Hip Online Based Apparel for  Gen Z Market</t>
+        </is>
+      </c>
+      <c r="C203" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="D203">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Makati</t>
         </is>
       </c>
       <c r="E203" s="65">
@@ -9132,40 +9117,40 @@
       </c>
       <c t="inlineStr" r="G203">
         <is>
+          <t xml:space="preserve">Retail General</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H203">
+        <is>
           <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
-      <c t="inlineStr" r="H203">
-        <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
       <c t="inlineStr" r="I203">
         <is>
-          <t xml:space="preserve">Princess Moratin</t>
+          <t xml:space="preserve">Kris Garcia</t>
         </is>
       </c>
       <c t="inlineStr" r="K203">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Refer to Broker</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c t="str" r="A204" s="4">
-        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00402/Take-Over-this-Turnkey-Lending-Business!","OR00402")</f>
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00400/Fast-Growing-Milk-Tea-Franchise-from-Taiwan","OR00400")</f>
       </c>
       <c t="inlineStr" r="B204">
         <is>
-          <t xml:space="preserve">Take Over this Turnkey Lending Business!</t>
+          <t xml:space="preserve">Fast Growing Milk Tea Franchise from Taiwan</t>
         </is>
       </c>
       <c r="C204" s="63">
-        <v>4500000</v>
+        <v>2350000</v>
       </c>
       <c t="inlineStr" r="D204">
         <is>
-          <t xml:space="preserve">National Capital Region</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
       <c r="E204" s="65">
@@ -9176,69 +9161,142 @@
       </c>
       <c t="inlineStr" r="G204">
         <is>
-          <t xml:space="preserve">Services</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="H204">
         <is>
-          <t xml:space="preserve">Finance/Insurance</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I204">
         <is>
-          <t xml:space="preserve">Roberto Narciso</t>
+          <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
       <c t="inlineStr" r="K204">
         <is>
-          <t xml:space="preserve">plus any applicable taxes</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c t="str" r="A205" s="4">
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00402/Take-Over-this-Turnkey-Lending-Business!","OR00402")</f>
+      </c>
+      <c t="inlineStr" r="B205">
+        <is>
+          <t xml:space="preserve">Take Over this Turnkey Lending Business!</t>
+        </is>
+      </c>
+      <c r="C205" s="63">
+        <v>4500000</v>
+      </c>
+      <c t="inlineStr" r="D205">
+        <is>
+          <t xml:space="preserve">National Capital Region</t>
+        </is>
+      </c>
+      <c r="E205" s="65">
+        <v>0</v>
+      </c>
+      <c r="F205" s="65">
+        <v>0</v>
+      </c>
+      <c t="inlineStr" r="G205">
+        <is>
+          <t xml:space="preserve">Services</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H205">
+        <is>
+          <t xml:space="preserve">Finance/Insurance</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I205">
+        <is>
+          <t xml:space="preserve">Roberto Narciso</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K205">
+        <is>
+          <t xml:space="preserve">plus any applicable taxes</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c t="str" r="A206" s="4">
         <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00404/Home-of-Authentic-Spanish-Cuisine-with-Commissary","OR00404")</f>
       </c>
-      <c t="inlineStr" r="B205">
+      <c t="inlineStr" r="B206">
         <is>
           <t xml:space="preserve">Home of Authentic Spanish Cuisine with Commissary</t>
         </is>
       </c>
-      <c r="C205" s="63">
+      <c r="C206" s="63">
         <v>5500000</v>
       </c>
-      <c t="inlineStr" r="D205">
+      <c t="inlineStr" r="D206">
         <is>
           <t xml:space="preserve">Pasig</t>
         </is>
       </c>
-      <c r="E205" s="65">
-        <v>0</v>
-      </c>
-      <c r="F205" s="65">
-        <v>0</v>
-      </c>
-      <c t="inlineStr" r="G205">
+      <c r="E206" s="65">
+        <v>0</v>
+      </c>
+      <c r="F206" s="65">
+        <v>0</v>
+      </c>
+      <c t="inlineStr" r="G206">
         <is>
           <t xml:space="preserve">Food/Beverage</t>
         </is>
       </c>
-      <c t="inlineStr" r="H205">
+      <c t="inlineStr" r="H206">
         <is>
           <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
-      <c t="inlineStr" r="I205">
+      <c t="inlineStr" r="I206">
         <is>
           <t xml:space="preserve">Princess Moratin</t>
         </is>
       </c>
-      <c t="inlineStr" r="J205">
+      <c t="inlineStr" r="J206">
         <is>
           <t xml:space="preserve">Poncho Claudio</t>
         </is>
       </c>
-      <c t="inlineStr" r="K205">
+      <c t="inlineStr" r="K206">
+        <is>
+          <t xml:space="preserve">-----</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c t="str" r="A207" s="4">
+        <f>HYPERLINK("https://linkbusiness.ph/businesses-for-sale/OR00405/Beautifully-Designed-Spanish-Restaurant-in-Makati","OR00405")</f>
+      </c>
+      <c t="inlineStr" r="B207">
+        <is>
+          <t xml:space="preserve">Beautifully Designed Spanish Restaurant in Makati</t>
+        </is>
+      </c>
+      <c r="C207" s="63">
+        <v>4500000</v>
+      </c>
+      <c t="inlineStr" r="D207">
+        <is>
+          <t xml:space="preserve">Makati</t>
+        </is>
+      </c>
+      <c r="E207" s="65">
+        <v>0</v>
+      </c>
+      <c r="F207" s="65">
+        <v>0</v>
+      </c>
+      <c t="inlineStr" r="K207">
         <is>
           <t xml:space="preserve">-----</t>
         </is>
